--- a/utilities/Excel_Sheets/Products/MMTM_Customer_Center.xlsx
+++ b/utilities/Excel_Sheets/Products/MMTM_Customer_Center.xlsx
@@ -1155,10 +1155,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1251,8 +1251,8 @@
         <v>250000</v>
       </c>
       <c r="J2" s="5">
-        <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <f ca="1">TODAY()+30</f>
+        <v>43152</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>10</v>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="J3" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>10</v>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="J4" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>10</v>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="J5" s="5">
         <f t="shared" ref="J5:J12" ca="1" si="0">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>10</v>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="J7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>10</v>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="J8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>10</v>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="J9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>10</v>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="J10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>10</v>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="J11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>10</v>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="J12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>10</v>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="J14" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="J16" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="J18" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>10</v>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="J20" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>10</v>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="J22" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="J24" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>10</v>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="J26" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>10</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="J28" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>10</v>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="J30" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>10</v>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="J32" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>10</v>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="J34" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>10</v>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="J36" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>10</v>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="J38" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>10</v>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="J40" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>10</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="J42" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>10</v>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="J44" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>10</v>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="J46" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>10</v>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="J48" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>10</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="J50" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>10</v>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="J52" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>10</v>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="J54" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>10</v>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="J56" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>10</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="J57" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>10</v>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="J58" s="5">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>10</v>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="J59" s="5">
         <f t="shared" ref="J59:J105" ca="1" si="1">TODAY()</f>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>10</v>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="J60" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>10</v>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="J61" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>10</v>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="J62" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>10</v>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="J63" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>10</v>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="J64" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>10</v>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="J65" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>10</v>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="J66" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>10</v>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="J67" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>10</v>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="J68" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>10</v>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="J69" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>10</v>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="J70" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>10</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="J71" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>10</v>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="J72" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>10</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="J73" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>10</v>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="J74" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>10</v>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="J75" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>10</v>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="J76" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>10</v>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="J77" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>10</v>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="J78" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>10</v>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="J79" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>10</v>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="J80" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>10</v>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="J81" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>10</v>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="J82" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>10</v>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="J83" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="J84" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>10</v>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="J85" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>10</v>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="J86" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>10</v>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="J87" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>10</v>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="J88" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>10</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="J89" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>10</v>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="J90" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>10</v>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="J91" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="J92" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>10</v>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="J93" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>10</v>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="J94" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="J95" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>10</v>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="J96" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>10</v>
@@ -4795,7 +4795,7 @@
       </c>
       <c r="J97" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>10</v>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="J98" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>10</v>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="J99" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K99" s="3" t="s">
         <v>10</v>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="J100" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="J101" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="J102" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>10</v>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="J103" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K103" s="3" t="s">
         <v>10</v>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="J104" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>10</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="J105" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>10</v>

--- a/utilities/Excel_Sheets/Products/MMTM_Customer_Center.xlsx
+++ b/utilities/Excel_Sheets/Products/MMTM_Customer_Center.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regressions!$A$1:$N$94</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$108</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="239">
   <si>
     <t>State</t>
   </si>
@@ -1153,12 +1153,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="2" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1236,23 +1236,23 @@
         <v>234</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="H2" s="7">
-        <v>36101</v>
+        <v>94203</v>
       </c>
       <c r="I2" s="3">
         <v>250000</v>
       </c>
       <c r="J2" s="5">
-        <f ca="1">TODAY()+30</f>
-        <v>43152</v>
+        <f ca="1">TODAY()</f>
+        <v>43137</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>10</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="3" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -1281,23 +1281,23 @@
         <v>234</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="7">
-        <v>99801</v>
+        <v>36101</v>
       </c>
       <c r="I3" s="3">
         <v>250000</v>
       </c>
       <c r="J3" s="5">
-        <f ca="1">TODAY()</f>
-        <v>43122</v>
+        <f ca="1">TODAY()+30</f>
+        <v>43167</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>10</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -1326,23 +1326,23 @@
         <v>234</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H4" s="7">
-        <v>85001</v>
+        <v>99801</v>
       </c>
       <c r="I4" s="3">
         <v>250000</v>
       </c>
       <c r="J4" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>10</v>
@@ -1359,113 +1359,113 @@
     </row>
     <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="7">
+        <v>85001</v>
+      </c>
+      <c r="I5" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J5" s="5">
+        <f ca="1">TODAY()</f>
+        <v>43137</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="3">
+        <v>90</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H6" s="7">
         <v>72201</v>
       </c>
-      <c r="I5" s="3">
-        <v>250000</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" ref="J5:J12" ca="1" si="0">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="3">
-        <v>90</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="4"/>
+      <c r="I6" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" ref="J6:J13" ca="1" si="0">TODAY()</f>
+        <v>43137</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="3">
+        <v>90</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>94203</v>
-      </c>
-      <c r="I7" s="3">
-        <v>250000</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>43122</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="3">
-        <v>90</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -1477,23 +1477,23 @@
         <v>234</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="H8" s="7">
-        <v>80123</v>
+        <v>94203</v>
       </c>
       <c r="I8" s="3">
         <v>250000</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>10</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -1522,23 +1522,23 @@
         <v>234</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H9" s="7">
-        <v>19901</v>
+        <v>80123</v>
       </c>
       <c r="I9" s="3">
         <v>250000</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>10</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="10" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -1567,23 +1567,23 @@
         <v>234</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="7">
-        <v>32301</v>
+        <v>19901</v>
       </c>
       <c r="I10" s="3">
         <v>250000</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -1612,23 +1612,23 @@
         <v>234</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="7">
-        <v>30301</v>
+        <v>32301</v>
       </c>
       <c r="I11" s="3">
         <v>250000</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>10</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="12" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -1657,23 +1657,23 @@
         <v>234</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>235</v>
+        <v>92</v>
+      </c>
+      <c r="H12" s="7">
+        <v>30301</v>
       </c>
       <c r="I12" s="3">
         <v>250000</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>10</v>
@@ -1689,1285 +1689,1285 @@
       </c>
     </row>
     <row r="13" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="4"/>
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I13" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43137</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="3">
+        <v>90</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H15" s="7">
         <v>94203</v>
       </c>
-      <c r="I14" s="3">
-        <v>250000</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="I15" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J15" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="3">
-        <v>90</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="4"/>
+        <v>43137</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="3">
+        <v>90</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B17" s="4">
         <v>6</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H17" s="8">
         <v>94203</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <v>1000001</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J17" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="3">
-        <v>90</v>
-      </c>
-      <c r="N16" s="4" t="s">
+        <v>43137</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="3">
+        <v>90</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="4"/>
-    </row>
     <row r="18" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B19" s="4">
         <v>7</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H19" s="8">
         <v>94203</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I19" s="3">
         <v>2500001</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J19" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="3">
-        <v>90</v>
-      </c>
-      <c r="N18" s="4" t="s">
+        <v>43137</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="3">
+        <v>90</v>
+      </c>
+      <c r="N19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
-    </row>
     <row r="20" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B21" s="4">
         <v>5</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="C21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H21" s="8">
         <v>94203</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I21" s="3">
         <v>500001</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J21" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="3">
-        <v>90</v>
-      </c>
-      <c r="N20" s="4" t="s">
+        <v>43137</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="3">
+        <v>90</v>
+      </c>
+      <c r="N21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="4"/>
-    </row>
     <row r="22" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B23" s="4">
         <v>2</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H23" s="8">
         <v>94203</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I23" s="3">
         <v>499999</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J23" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="3">
-        <v>90</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23" s="9"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-    </row>
-    <row r="24" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+        <v>43137</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="3">
+        <v>90</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24" s="9"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B25" s="4">
         <v>3</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="C25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H25" s="8">
         <v>94203</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I25" s="3">
         <v>499999</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J25" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="3">
-        <v>90</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25" s="9"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-    </row>
-    <row r="26" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+        <v>43137</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="3">
+        <v>90</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26" s="9"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B27" s="4">
         <v>4</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="C27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H27" s="8">
         <v>94203</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I27" s="3">
         <v>499999</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J27" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M26" s="3">
-        <v>90</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="H27" s="9"/>
+        <v>43137</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="3">
+        <v>90</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H29" s="8">
         <v>94203</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I29" s="3">
         <v>499999</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J29" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="3">
-        <v>90</v>
-      </c>
-      <c r="N28" s="4" t="s">
+        <v>43137</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="3">
+        <v>90</v>
+      </c>
+      <c r="N29" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="H29" s="9"/>
-    </row>
     <row r="30" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B31" s="4">
         <v>2</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="C31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H31" s="8">
         <v>94203</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I31" s="3">
         <v>499999</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J31" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M30" s="3">
-        <v>90</v>
-      </c>
-      <c r="N30" s="4" t="s">
+        <v>43137</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>90</v>
+      </c>
+      <c r="N31" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31" s="9"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-    </row>
-    <row r="32" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32" s="9"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B33" s="4">
         <v>3</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="C33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H33" s="8">
         <v>94203</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I33" s="3">
         <v>499999</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J33" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>90</v>
-      </c>
-      <c r="N32" s="4" t="s">
+        <v>43137</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="3">
+        <v>90</v>
+      </c>
+      <c r="N33" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33" s="9"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-    </row>
-    <row r="34" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34" s="9"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+    </row>
+    <row r="35" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B35" s="4">
         <v>4</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="C35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H35" s="8">
         <v>94203</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I35" s="3">
         <v>499999</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J35" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M34" s="3">
-        <v>90</v>
-      </c>
-      <c r="N34" s="4" t="s">
+        <v>43137</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="3">
+        <v>90</v>
+      </c>
+      <c r="N35" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="H35" s="9"/>
-    </row>
     <row r="36" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="4">
-        <v>1</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H37" s="8">
         <v>94203</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I37" s="3">
         <v>499999</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J37" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M36" s="3">
-        <v>90</v>
-      </c>
-      <c r="N36" s="4" t="s">
+        <v>43137</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" s="3">
+        <v>90</v>
+      </c>
+      <c r="N37" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="H37" s="9"/>
-    </row>
     <row r="38" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B39" s="4">
         <v>2</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="C39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H39" s="8">
         <v>94203</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I39" s="3">
         <v>499999</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J39" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M38" s="3">
-        <v>90</v>
-      </c>
-      <c r="N38" s="4" t="s">
+        <v>43137</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" s="3">
+        <v>90</v>
+      </c>
+      <c r="N39" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39" s="9"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-    </row>
-    <row r="40" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40" s="9"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+    </row>
+    <row r="41" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B41" s="4">
         <v>3</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E40" s="4" t="s">
+      <c r="C41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H41" s="8">
         <v>94203</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I41" s="3">
         <v>499999</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J41" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M40" s="3">
-        <v>90</v>
-      </c>
-      <c r="N40" s="4" t="s">
+        <v>43137</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="3">
+        <v>90</v>
+      </c>
+      <c r="N41" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41" s="9"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-    </row>
-    <row r="42" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42" s="9"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+    </row>
+    <row r="43" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B43" s="4">
         <v>4</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E42" s="4" t="s">
+      <c r="C43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H43" s="8">
         <v>94203</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I43" s="3">
         <v>499999</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J43" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M42" s="3">
-        <v>90</v>
-      </c>
-      <c r="N42" s="4" t="s">
+        <v>43137</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" s="3">
+        <v>90</v>
+      </c>
+      <c r="N43" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="H43" s="9"/>
-    </row>
     <row r="44" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B45" s="4">
         <v>5</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E44" s="4" t="s">
+      <c r="C45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H45" s="8">
         <v>94203</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I45" s="3">
         <v>500000</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J45" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M44" s="3">
-        <v>90</v>
-      </c>
-      <c r="N44" s="4" t="s">
+        <v>43137</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="3">
+        <v>90</v>
+      </c>
+      <c r="N45" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45" s="9"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-    </row>
-    <row r="46" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46" s="9"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+    </row>
+    <row r="47" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B47" s="4">
         <v>5</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="C47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H47" s="8">
         <v>94203</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I47" s="3">
         <v>500001</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J47" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M46" s="3">
-        <v>90</v>
-      </c>
-      <c r="N46" s="4" t="s">
+        <v>43137</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" s="3">
+        <v>90</v>
+      </c>
+      <c r="N47" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47" s="9"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-    </row>
-    <row r="48" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48" s="9"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+    </row>
+    <row r="49" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B49" s="4">
         <v>6</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="C49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H49" s="8">
         <v>94203</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I49" s="3">
         <v>1000000</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J49" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M48" s="3">
-        <v>90</v>
-      </c>
-      <c r="N48" s="4" t="s">
+        <v>43137</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" s="3">
+        <v>90</v>
+      </c>
+      <c r="N49" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49" s="9"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-    </row>
-    <row r="50" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50" s="9"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+    </row>
+    <row r="51" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B51" s="4">
         <v>6</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="C51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H51" s="8">
         <v>94203</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I51" s="3">
         <v>1000001</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J51" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M50" s="3">
-        <v>90</v>
-      </c>
-      <c r="N50" s="4" t="s">
+        <v>43137</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" s="3">
+        <v>90</v>
+      </c>
+      <c r="N51" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51" s="9"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
-    </row>
-    <row r="52" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52" s="9"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+    </row>
+    <row r="53" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B53" s="4">
         <v>7</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E52" s="4" t="s">
+      <c r="C53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H53" s="8">
         <v>94203</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I53" s="3">
         <v>2500001</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J53" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M52" s="3">
-        <v>90</v>
-      </c>
-      <c r="N52" s="4" t="s">
+        <v>43137</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M53" s="3">
+        <v>90</v>
+      </c>
+      <c r="N53" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53" s="9"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
-    </row>
-    <row r="54" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54" s="9"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+    </row>
+    <row r="55" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B55" s="4">
         <v>7</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E54" s="4" t="s">
+      <c r="C55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H55" s="8">
         <v>94203</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I55" s="3">
         <v>2500001</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J55" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M54" s="3">
-        <v>90</v>
-      </c>
-      <c r="N54" s="4" t="s">
+        <v>43137</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="3">
+        <v>90</v>
+      </c>
+      <c r="N55" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55" s="9"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-    </row>
-    <row r="56" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" s="4">
-        <v>1</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H56" s="7">
-        <v>36101</v>
-      </c>
-      <c r="I56" s="3">
-        <v>250000</v>
-      </c>
-      <c r="J56" s="5">
-        <f ca="1">TODAY()</f>
-        <v>43122</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M56" s="3">
-        <v>90</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>16</v>
-      </c>
+    <row r="56" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56" s="9"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
     </row>
     <row r="57" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B57" s="4">
         <v>1</v>
@@ -2979,23 +2979,23 @@
         <v>234</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H57" s="7">
-        <v>99801</v>
+        <v>36101</v>
       </c>
       <c r="I57" s="3">
         <v>250000</v>
       </c>
       <c r="J57" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>10</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="58" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B58" s="4">
         <v>1</v>
@@ -3024,23 +3024,23 @@
         <v>234</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H58" s="7">
-        <v>85001</v>
+        <v>99801</v>
       </c>
       <c r="I58" s="3">
         <v>250000</v>
       </c>
       <c r="J58" s="5">
         <f ca="1">TODAY()</f>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>10</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="59" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B59" s="4">
         <v>1</v>
@@ -3069,23 +3069,23 @@
         <v>234</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="H59" s="7">
-        <v>72201</v>
+        <v>85001</v>
       </c>
       <c r="I59" s="3">
         <v>250000</v>
       </c>
       <c r="J59" s="5">
-        <f t="shared" ref="J59:J105" ca="1" si="1">TODAY()</f>
-        <v>43122</v>
+        <f ca="1">TODAY()</f>
+        <v>43137</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>10</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="60" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B60" s="4">
         <v>1</v>
@@ -3114,23 +3114,23 @@
         <v>234</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="H60" s="7">
-        <v>94203</v>
+        <v>72201</v>
       </c>
       <c r="I60" s="3">
         <v>250000</v>
       </c>
       <c r="J60" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <f t="shared" ref="J60:J106" ca="1" si="1">TODAY()</f>
+        <v>43137</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>10</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="61" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B61" s="4">
         <v>1</v>
@@ -3159,23 +3159,23 @@
         <v>234</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="H61" s="7">
-        <v>80123</v>
+        <v>94203</v>
       </c>
       <c r="I61" s="3">
         <v>250000</v>
       </c>
       <c r="J61" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>10</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="62" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
@@ -3204,23 +3204,23 @@
         <v>234</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>235</v>
+        <v>88</v>
+      </c>
+      <c r="H62" s="7">
+        <v>80123</v>
       </c>
       <c r="I62" s="3">
         <v>250000</v>
       </c>
       <c r="J62" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>10</v>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="63" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B63" s="4">
         <v>1</v>
@@ -3249,23 +3249,23 @@
         <v>234</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H63" s="7">
-        <v>19901</v>
+        <v>89</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="I63" s="3">
         <v>250000</v>
       </c>
       <c r="J63" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>10</v>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="64" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
@@ -3294,23 +3294,23 @@
         <v>234</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H64" s="7">
-        <v>32301</v>
+        <v>19901</v>
       </c>
       <c r="I64" s="3">
         <v>250000</v>
       </c>
       <c r="J64" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>10</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="65" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B65" s="4">
         <v>1</v>
@@ -3339,23 +3339,23 @@
         <v>234</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="7">
-        <v>30301</v>
+        <v>32301</v>
       </c>
       <c r="I65" s="3">
         <v>250000</v>
       </c>
       <c r="J65" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>10</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="66" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B66" s="4">
         <v>1</v>
@@ -3384,23 +3384,23 @@
         <v>234</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H66" s="7">
-        <v>96813</v>
+        <v>30301</v>
       </c>
       <c r="I66" s="3">
         <v>250000</v>
       </c>
       <c r="J66" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>10</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="67" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B67" s="4">
         <v>1</v>
@@ -3429,23 +3429,23 @@
         <v>234</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H67" s="7">
-        <v>83701</v>
+        <v>96813</v>
       </c>
       <c r="I67" s="3">
         <v>250000</v>
       </c>
       <c r="J67" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>10</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="68" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B68" s="4">
         <v>1</v>
@@ -3474,23 +3474,23 @@
         <v>234</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H68" s="7">
-        <v>62701</v>
+        <v>83701</v>
       </c>
       <c r="I68" s="3">
         <v>250000</v>
       </c>
       <c r="J68" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>10</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="69" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B69" s="4">
         <v>1</v>
@@ -3519,23 +3519,23 @@
         <v>234</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H69" s="7">
-        <v>46201</v>
+        <v>62701</v>
       </c>
       <c r="I69" s="3">
         <v>250000</v>
       </c>
       <c r="J69" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>10</v>
@@ -3552,7 +3552,7 @@
     </row>
     <row r="70" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B70" s="4">
         <v>1</v>
@@ -3564,23 +3564,23 @@
         <v>234</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="H70" s="7">
-        <v>50301</v>
+        <v>46201</v>
       </c>
       <c r="I70" s="3">
         <v>250000</v>
       </c>
       <c r="J70" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>10</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="71" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
@@ -3609,23 +3609,23 @@
         <v>234</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H71" s="7">
-        <v>66601</v>
+        <v>50301</v>
       </c>
       <c r="I71" s="3">
         <v>250000</v>
       </c>
       <c r="J71" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>10</v>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="72" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B72" s="4">
         <v>1</v>
@@ -3654,23 +3654,23 @@
         <v>234</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H72" s="7">
-        <v>40601</v>
+        <v>66601</v>
       </c>
       <c r="I72" s="3">
         <v>250000</v>
       </c>
       <c r="J72" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>10</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="73" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B73" s="4">
         <v>1</v>
@@ -3699,23 +3699,23 @@
         <v>234</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H73" s="7">
-        <v>70801</v>
+        <v>40601</v>
       </c>
       <c r="I73" s="3">
         <v>250000</v>
       </c>
       <c r="J73" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>10</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="74" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B74" s="4">
         <v>1</v>
@@ -3744,23 +3744,23 @@
         <v>234</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>177</v>
+        <v>99</v>
+      </c>
+      <c r="H74" s="7">
+        <v>70801</v>
       </c>
       <c r="I74" s="3">
         <v>250000</v>
       </c>
       <c r="J74" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>10</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="75" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B75" s="4">
         <v>1</v>
@@ -3789,23 +3789,23 @@
         <v>234</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H75" s="7">
-        <v>21401</v>
+        <v>100</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="I75" s="3">
         <v>250000</v>
       </c>
       <c r="J75" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>10</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="76" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B76" s="4">
         <v>1</v>
@@ -3834,23 +3834,23 @@
         <v>234</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>238</v>
+        <v>101</v>
+      </c>
+      <c r="H76" s="7">
+        <v>21401</v>
       </c>
       <c r="I76" s="3">
         <v>250000</v>
       </c>
       <c r="J76" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>10</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="77" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B77" s="4">
         <v>1</v>
@@ -3879,23 +3879,23 @@
         <v>234</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H77" s="7">
-        <v>48901</v>
+        <v>102</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="I77" s="3">
         <v>250000</v>
       </c>
       <c r="J77" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>10</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="78" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B78" s="4">
         <v>1</v>
@@ -3924,23 +3924,23 @@
         <v>234</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H78" s="7">
-        <v>55101</v>
+        <v>48901</v>
       </c>
       <c r="I78" s="3">
         <v>250000</v>
       </c>
       <c r="J78" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>10</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="79" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B79" s="4">
         <v>1</v>
@@ -3969,23 +3969,23 @@
         <v>234</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H79" s="7">
-        <v>39201</v>
+        <v>55101</v>
       </c>
       <c r="I79" s="3">
         <v>250000</v>
       </c>
       <c r="J79" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>10</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="80" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B80" s="4">
         <v>1</v>
@@ -4014,23 +4014,23 @@
         <v>234</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H80" s="7">
-        <v>65101</v>
+        <v>39201</v>
       </c>
       <c r="I80" s="3">
         <v>250000</v>
       </c>
       <c r="J80" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>10</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="81" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B81" s="4">
         <v>1</v>
@@ -4059,23 +4059,23 @@
         <v>234</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H81" s="7">
-        <v>59601</v>
+        <v>65101</v>
       </c>
       <c r="I81" s="3">
         <v>250000</v>
       </c>
       <c r="J81" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>10</v>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="82" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B82" s="4">
         <v>1</v>
@@ -4104,23 +4104,23 @@
         <v>234</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H82" s="7">
-        <v>68501</v>
+        <v>59601</v>
       </c>
       <c r="I82" s="3">
         <v>250000</v>
       </c>
       <c r="J82" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>10</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="83" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B83" s="4">
         <v>1</v>
@@ -4149,23 +4149,23 @@
         <v>234</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H83" s="7">
-        <v>89701</v>
+        <v>68501</v>
       </c>
       <c r="I83" s="3">
         <v>250000</v>
       </c>
       <c r="J83" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="84" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B84" s="4">
         <v>1</v>
@@ -4194,23 +4194,23 @@
         <v>234</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>236</v>
+        <v>111</v>
+      </c>
+      <c r="H84" s="7">
+        <v>89701</v>
       </c>
       <c r="I84" s="3">
         <v>250000</v>
       </c>
       <c r="J84" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>10</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="85" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B85" s="4">
         <v>1</v>
@@ -4239,23 +4239,23 @@
         <v>234</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I85" s="3">
         <v>250000</v>
       </c>
       <c r="J85" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>10</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="86" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B86" s="4">
         <v>1</v>
@@ -4284,23 +4284,23 @@
         <v>234</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H86" s="7">
-        <v>87501</v>
+        <v>113</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="I86" s="3">
         <v>250000</v>
       </c>
       <c r="J86" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>10</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="87" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B87" s="4">
         <v>1</v>
@@ -4329,23 +4329,23 @@
         <v>234</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H87" s="7">
-        <v>12201</v>
+        <v>87501</v>
       </c>
       <c r="I87" s="3">
         <v>250000</v>
       </c>
       <c r="J87" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>10</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="88" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B88" s="4">
         <v>1</v>
@@ -4374,23 +4374,23 @@
         <v>234</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H88" s="7">
-        <v>27601</v>
+        <v>12201</v>
       </c>
       <c r="I88" s="3">
         <v>250000</v>
       </c>
       <c r="J88" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>10</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="89" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B89" s="4">
         <v>1</v>
@@ -4419,23 +4419,23 @@
         <v>234</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H89" s="7">
-        <v>58501</v>
+        <v>27601</v>
       </c>
       <c r="I89" s="3">
         <v>250000</v>
       </c>
       <c r="J89" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>10</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="90" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
@@ -4464,23 +4464,23 @@
         <v>234</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H90" s="7">
-        <v>43085</v>
+        <v>58501</v>
       </c>
       <c r="I90" s="3">
         <v>250000</v>
       </c>
       <c r="J90" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>10</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="91" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B91" s="4">
         <v>1</v>
@@ -4509,23 +4509,23 @@
         <v>234</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H91" s="7">
-        <v>73101</v>
+        <v>43085</v>
       </c>
       <c r="I91" s="3">
         <v>250000</v>
       </c>
       <c r="J91" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="92" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B92" s="4">
         <v>1</v>
@@ -4554,23 +4554,23 @@
         <v>234</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H92" s="7">
-        <v>97301</v>
+        <v>73101</v>
       </c>
       <c r="I92" s="3">
         <v>250000</v>
       </c>
       <c r="J92" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>10</v>
@@ -4587,7 +4587,7 @@
     </row>
     <row r="93" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B93" s="4">
         <v>1</v>
@@ -4599,23 +4599,23 @@
         <v>234</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H93" s="7">
-        <v>17101</v>
+        <v>97301</v>
       </c>
       <c r="I93" s="3">
         <v>250000</v>
       </c>
       <c r="J93" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>10</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="94" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B94" s="4">
         <v>1</v>
@@ -4644,23 +4644,23 @@
         <v>234</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>155</v>
+        <v>121</v>
+      </c>
+      <c r="H94" s="7">
+        <v>17101</v>
       </c>
       <c r="I94" s="3">
         <v>250000</v>
       </c>
       <c r="J94" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="95" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B95" s="4">
         <v>1</v>
@@ -4689,23 +4689,23 @@
         <v>234</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H95" s="7">
-        <v>29201</v>
+        <v>122</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="I95" s="3">
         <v>250000</v>
       </c>
       <c r="J95" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>10</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="96" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B96" s="4">
         <v>1</v>
@@ -4734,23 +4734,23 @@
         <v>234</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H96" s="7">
-        <v>57501</v>
+        <v>29201</v>
       </c>
       <c r="I96" s="3">
         <v>250000</v>
       </c>
       <c r="J96" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>10</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="97" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B97" s="4">
         <v>1</v>
@@ -4779,23 +4779,23 @@
         <v>234</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H97" s="7">
-        <v>37115</v>
+        <v>57501</v>
       </c>
       <c r="I97" s="3">
         <v>250000</v>
       </c>
       <c r="J97" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>10</v>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="98" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B98" s="4">
         <v>1</v>
@@ -4824,23 +4824,23 @@
         <v>234</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H98" s="7">
-        <v>73301</v>
+        <v>37115</v>
       </c>
       <c r="I98" s="3">
         <v>250000</v>
       </c>
       <c r="J98" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>10</v>
@@ -4857,7 +4857,7 @@
     </row>
     <row r="99" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B99" s="4">
         <v>1</v>
@@ -4869,23 +4869,23 @@
         <v>234</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H99" s="7">
-        <v>84101</v>
+        <v>73301</v>
       </c>
       <c r="I99" s="3">
         <v>250000</v>
       </c>
       <c r="J99" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K99" s="3" t="s">
         <v>10</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="100" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B100" s="4">
         <v>1</v>
@@ -4914,23 +4914,23 @@
         <v>234</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>156</v>
+        <v>127</v>
+      </c>
+      <c r="H100" s="7">
+        <v>84101</v>
       </c>
       <c r="I100" s="3">
         <v>250000</v>
       </c>
       <c r="J100" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="101" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B101" s="4">
         <v>1</v>
@@ -4959,23 +4959,23 @@
         <v>234</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H101" s="7">
-        <v>23218</v>
+        <v>128</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="I101" s="3">
         <v>250000</v>
       </c>
       <c r="J101" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="102" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B102" s="4">
         <v>1</v>
@@ -5004,23 +5004,23 @@
         <v>234</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H102" s="7">
-        <v>98501</v>
+        <v>23218</v>
       </c>
       <c r="I102" s="3">
         <v>250000</v>
       </c>
       <c r="J102" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>10</v>
@@ -5037,7 +5037,7 @@
     </row>
     <row r="103" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B103" s="4">
         <v>1</v>
@@ -5049,23 +5049,23 @@
         <v>234</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H103" s="7">
-        <v>25301</v>
+        <v>98501</v>
       </c>
       <c r="I103" s="3">
         <v>250000</v>
       </c>
       <c r="J103" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K103" s="3" t="s">
         <v>10</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="104" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B104" s="4">
         <v>1</v>
@@ -5094,23 +5094,23 @@
         <v>234</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H104" s="7">
-        <v>53705</v>
+        <v>25301</v>
       </c>
       <c r="I104" s="3">
         <v>250000</v>
       </c>
       <c r="J104" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>10</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="105" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B105" s="4">
         <v>1</v>
@@ -5139,23 +5139,23 @@
         <v>234</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H105" s="7">
-        <v>82001</v>
+        <v>53705</v>
       </c>
       <c r="I105" s="3">
         <v>250000</v>
       </c>
       <c r="J105" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43122</v>
+        <v>43137</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>10</v>
@@ -5170,21 +5170,50 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106"/>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106"/>
-      <c r="I106"/>
-      <c r="J106"/>
-      <c r="K106"/>
-      <c r="L106"/>
-      <c r="M106"/>
-      <c r="N106"/>
+    <row r="106" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B106" s="4">
+        <v>1</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H106" s="7">
+        <v>82001</v>
+      </c>
+      <c r="I106" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J106" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>43137</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M106" s="3">
+        <v>90</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="107" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A107"/>
@@ -5202,8 +5231,24 @@
       <c r="M107"/>
       <c r="N107"/>
     </row>
+    <row r="108" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N107" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/MMTM_Customer_Center.xlsx
+++ b/utilities/Excel_Sheets/Products/MMTM_Customer_Center.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regressions!$A$1:$N$94</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$109</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -1153,7 +1153,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="J2" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>10</v>
@@ -1268,53 +1268,24 @@
       </c>
     </row>
     <row r="3" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="7">
-        <v>36101</v>
-      </c>
-      <c r="I3" s="3">
-        <v>250000</v>
-      </c>
-      <c r="J3" s="5">
-        <f ca="1">TODAY()+30</f>
-        <v>43167</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="3">
-        <v>90</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -1326,23 +1297,23 @@
         <v>234</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="7">
-        <v>99801</v>
+        <v>36101</v>
       </c>
       <c r="I4" s="3">
         <v>250000</v>
       </c>
       <c r="J4" s="5">
-        <f ca="1">TODAY()</f>
-        <v>43137</v>
+        <f ca="1">TODAY()+30</f>
+        <v>43236</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>10</v>
@@ -1359,7 +1330,7 @@
     </row>
     <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -1371,23 +1342,23 @@
         <v>234</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H5" s="7">
-        <v>85001</v>
+        <v>99801</v>
       </c>
       <c r="I5" s="3">
         <v>250000</v>
       </c>
       <c r="J5" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>10</v>
@@ -1404,113 +1375,113 @@
     </row>
     <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="7">
+        <v>85001</v>
+      </c>
+      <c r="I6" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J6" s="5">
+        <f ca="1">TODAY()</f>
+        <v>43206</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="3">
+        <v>90</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H7" s="7">
         <v>72201</v>
       </c>
-      <c r="I6" s="3">
-        <v>250000</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" ref="J6:J13" ca="1" si="0">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="3">
-        <v>90</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="4"/>
+      <c r="I7" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" ref="J7:J14" ca="1" si="0">TODAY()</f>
+        <v>43206</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="3">
+        <v>90</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="7">
-        <v>94203</v>
-      </c>
-      <c r="I8" s="3">
-        <v>250000</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>43137</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="3">
-        <v>90</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -1522,23 +1493,23 @@
         <v>234</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="H9" s="7">
-        <v>80123</v>
+        <v>94203</v>
       </c>
       <c r="I9" s="3">
         <v>250000</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>10</v>
@@ -1555,7 +1526,7 @@
     </row>
     <row r="10" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -1567,23 +1538,23 @@
         <v>234</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H10" s="7">
-        <v>19901</v>
+        <v>80123</v>
       </c>
       <c r="I10" s="3">
         <v>250000</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>10</v>
@@ -1600,7 +1571,7 @@
     </row>
     <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -1612,23 +1583,23 @@
         <v>234</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" s="7">
-        <v>32301</v>
+        <v>19901</v>
       </c>
       <c r="I11" s="3">
         <v>250000</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>10</v>
@@ -1645,7 +1616,7 @@
     </row>
     <row r="12" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -1657,23 +1628,23 @@
         <v>234</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H12" s="7">
-        <v>30301</v>
+        <v>32301</v>
       </c>
       <c r="I12" s="3">
         <v>250000</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>10</v>
@@ -1690,7 +1661,7 @@
     </row>
     <row r="13" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -1702,23 +1673,23 @@
         <v>234</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>235</v>
+        <v>92</v>
+      </c>
+      <c r="H13" s="7">
+        <v>30301</v>
       </c>
       <c r="I13" s="3">
         <v>250000</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>10</v>
@@ -1734,1285 +1705,1285 @@
       </c>
     </row>
     <row r="14" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I14" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43206</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="3">
+        <v>90</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H16" s="7">
         <v>94203</v>
       </c>
-      <c r="I15" s="3">
-        <v>250000</v>
-      </c>
-      <c r="J15" s="5">
+      <c r="I16" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J16" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="3">
-        <v>90</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="4"/>
+        <v>43206</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="3">
+        <v>90</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B18" s="4">
         <v>6</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H18" s="8">
         <v>94203</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I18" s="3">
         <v>1000001</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J18" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="3">
-        <v>90</v>
-      </c>
-      <c r="N17" s="4" t="s">
+        <v>43206</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="3">
+        <v>90</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="4"/>
-    </row>
     <row r="19" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B20" s="4">
         <v>7</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H20" s="8">
         <v>94203</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I20" s="3">
         <v>2500001</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J20" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="3">
-        <v>90</v>
-      </c>
-      <c r="N19" s="4" t="s">
+        <v>43206</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="3">
+        <v>90</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="4"/>
-    </row>
     <row r="21" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B22" s="4">
         <v>5</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="C22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H22" s="8">
         <v>94203</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I22" s="3">
         <v>500001</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J22" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" s="3">
-        <v>90</v>
-      </c>
-      <c r="N21" s="4" t="s">
+        <v>43206</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="3">
+        <v>90</v>
+      </c>
+      <c r="N22" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="4"/>
-    </row>
     <row r="23" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="C24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H24" s="8">
         <v>94203</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I24" s="3">
         <v>499999</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J24" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M23" s="3">
-        <v>90</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24" s="9"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-    </row>
-    <row r="25" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+        <v>43206</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="3">
+        <v>90</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25" s="9"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B26" s="4">
         <v>3</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="C26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H26" s="8">
         <v>94203</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I26" s="3">
         <v>499999</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J26" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M25" s="3">
-        <v>90</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26" s="9"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-    </row>
-    <row r="27" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+        <v>43206</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="3">
+        <v>90</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27" s="9"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B28" s="4">
         <v>4</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="C28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H28" s="8">
         <v>94203</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I28" s="3">
         <v>499999</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J28" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="3">
-        <v>90</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="H28" s="9"/>
+        <v>43206</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="3">
+        <v>90</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="4">
-        <v>1</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H30" s="8">
         <v>94203</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I30" s="3">
         <v>499999</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J30" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" s="3">
-        <v>90</v>
-      </c>
-      <c r="N29" s="4" t="s">
+        <v>43206</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="3">
+        <v>90</v>
+      </c>
+      <c r="N30" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="H30" s="9"/>
-    </row>
     <row r="31" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B32" s="4">
         <v>2</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="C32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H32" s="8">
         <v>94203</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I32" s="3">
         <v>499999</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J32" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M31" s="3">
-        <v>90</v>
-      </c>
-      <c r="N31" s="4" t="s">
+        <v>43206</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="3">
+        <v>90</v>
+      </c>
+      <c r="N32" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32" s="9"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-    </row>
-    <row r="33" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33" s="9"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B34" s="4">
         <v>3</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="C34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H34" s="8">
         <v>94203</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I34" s="3">
         <v>499999</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J34" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M33" s="3">
-        <v>90</v>
-      </c>
-      <c r="N33" s="4" t="s">
+        <v>43206</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="3">
+        <v>90</v>
+      </c>
+      <c r="N34" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34" s="9"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-    </row>
-    <row r="35" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35" s="9"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+    </row>
+    <row r="36" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B36" s="4">
         <v>4</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="C36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H36" s="8">
         <v>94203</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I36" s="3">
         <v>499999</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J36" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M35" s="3">
-        <v>90</v>
-      </c>
-      <c r="N35" s="4" t="s">
+        <v>43206</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="3">
+        <v>90</v>
+      </c>
+      <c r="N36" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="H36" s="9"/>
-    </row>
     <row r="37" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="4">
-        <v>1</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E37" s="4" t="s">
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H38" s="8">
         <v>94203</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I38" s="3">
         <v>499999</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J38" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M37" s="3">
-        <v>90</v>
-      </c>
-      <c r="N37" s="4" t="s">
+        <v>43206</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" s="3">
+        <v>90</v>
+      </c>
+      <c r="N38" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="H38" s="9"/>
-    </row>
     <row r="39" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B40" s="4">
         <v>2</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="C40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H40" s="8">
         <v>94203</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I40" s="3">
         <v>499999</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J40" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M39" s="3">
-        <v>90</v>
-      </c>
-      <c r="N39" s="4" t="s">
+        <v>43206</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="3">
+        <v>90</v>
+      </c>
+      <c r="N40" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40" s="9"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-    </row>
-    <row r="41" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41" s="9"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+    </row>
+    <row r="42" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B42" s="4">
         <v>3</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="C42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H42" s="8">
         <v>94203</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I42" s="3">
         <v>499999</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J42" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M41" s="3">
-        <v>90</v>
-      </c>
-      <c r="N41" s="4" t="s">
+        <v>43206</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" s="3">
+        <v>90</v>
+      </c>
+      <c r="N42" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42" s="9"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-    </row>
-    <row r="43" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43" s="9"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+    </row>
+    <row r="44" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B44" s="4">
         <v>4</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="C44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H44" s="8">
         <v>94203</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I44" s="3">
         <v>499999</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J44" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M43" s="3">
-        <v>90</v>
-      </c>
-      <c r="N43" s="4" t="s">
+        <v>43206</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M44" s="3">
+        <v>90</v>
+      </c>
+      <c r="N44" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="H44" s="9"/>
-    </row>
     <row r="45" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B46" s="4">
         <v>5</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="C46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H46" s="8">
         <v>94203</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I46" s="3">
         <v>500000</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J46" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M45" s="3">
-        <v>90</v>
-      </c>
-      <c r="N45" s="4" t="s">
+        <v>43206</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M46" s="3">
+        <v>90</v>
+      </c>
+      <c r="N46" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46" s="9"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-    </row>
-    <row r="47" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47" s="9"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+    </row>
+    <row r="48" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B48" s="4">
         <v>5</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="C48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H48" s="8">
         <v>94203</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I48" s="3">
         <v>500001</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J48" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M47" s="3">
-        <v>90</v>
-      </c>
-      <c r="N47" s="4" t="s">
+        <v>43206</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" s="3">
+        <v>90</v>
+      </c>
+      <c r="N48" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48" s="9"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-    </row>
-    <row r="49" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49" s="9"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+    </row>
+    <row r="50" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B50" s="4">
         <v>6</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="C50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H50" s="8">
         <v>94203</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I50" s="3">
         <v>1000000</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J50" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M49" s="3">
-        <v>90</v>
-      </c>
-      <c r="N49" s="4" t="s">
+        <v>43206</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M50" s="3">
+        <v>90</v>
+      </c>
+      <c r="N50" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50" s="9"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-    </row>
-    <row r="51" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51" s="9"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+    </row>
+    <row r="52" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B52" s="4">
         <v>6</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E51" s="4" t="s">
+      <c r="C52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H52" s="8">
         <v>94203</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I52" s="3">
         <v>1000001</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J52" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M51" s="3">
-        <v>90</v>
-      </c>
-      <c r="N51" s="4" t="s">
+        <v>43206</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M52" s="3">
+        <v>90</v>
+      </c>
+      <c r="N52" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52" s="9"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-    </row>
-    <row r="53" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53" s="9"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+    </row>
+    <row r="54" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B54" s="4">
         <v>7</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E53" s="4" t="s">
+      <c r="C54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H54" s="8">
         <v>94203</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I54" s="3">
         <v>2500001</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J54" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M53" s="3">
-        <v>90</v>
-      </c>
-      <c r="N53" s="4" t="s">
+        <v>43206</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" s="3">
+        <v>90</v>
+      </c>
+      <c r="N54" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54" s="9"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-    </row>
-    <row r="55" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55" s="9"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+    </row>
+    <row r="56" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B56" s="4">
         <v>7</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E55" s="4" t="s">
+      <c r="C56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H56" s="8">
         <v>94203</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I56" s="3">
         <v>2500001</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J56" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M55" s="3">
-        <v>90</v>
-      </c>
-      <c r="N55" s="4" t="s">
+        <v>43206</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M56" s="3">
+        <v>90</v>
+      </c>
+      <c r="N56" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56" s="9"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-    </row>
-    <row r="57" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="4">
-        <v>1</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H57" s="7">
-        <v>36101</v>
-      </c>
-      <c r="I57" s="3">
-        <v>250000</v>
-      </c>
-      <c r="J57" s="5">
-        <f ca="1">TODAY()</f>
-        <v>43137</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M57" s="3">
-        <v>90</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>16</v>
-      </c>
+    <row r="57" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57" s="9"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
     </row>
     <row r="58" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B58" s="4">
         <v>1</v>
@@ -3024,23 +2995,23 @@
         <v>234</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H58" s="7">
-        <v>99801</v>
+        <v>36101</v>
       </c>
       <c r="I58" s="3">
         <v>250000</v>
       </c>
       <c r="J58" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>10</v>
@@ -3057,7 +3028,7 @@
     </row>
     <row r="59" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B59" s="4">
         <v>1</v>
@@ -3069,23 +3040,23 @@
         <v>234</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H59" s="7">
-        <v>85001</v>
+        <v>99801</v>
       </c>
       <c r="I59" s="3">
         <v>250000</v>
       </c>
       <c r="J59" s="5">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>10</v>
@@ -3102,7 +3073,7 @@
     </row>
     <row r="60" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B60" s="4">
         <v>1</v>
@@ -3114,23 +3085,23 @@
         <v>234</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="H60" s="7">
-        <v>72201</v>
+        <v>85001</v>
       </c>
       <c r="I60" s="3">
         <v>250000</v>
       </c>
       <c r="J60" s="5">
-        <f t="shared" ref="J60:J106" ca="1" si="1">TODAY()</f>
-        <v>43137</v>
+        <f ca="1">TODAY()</f>
+        <v>43206</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>10</v>
@@ -3147,7 +3118,7 @@
     </row>
     <row r="61" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B61" s="4">
         <v>1</v>
@@ -3159,23 +3130,23 @@
         <v>234</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="H61" s="7">
-        <v>94203</v>
+        <v>72201</v>
       </c>
       <c r="I61" s="3">
         <v>250000</v>
       </c>
       <c r="J61" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <f t="shared" ref="J61:J107" ca="1" si="1">TODAY()</f>
+        <v>43206</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>10</v>
@@ -3192,7 +3163,7 @@
     </row>
     <row r="62" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
@@ -3204,23 +3175,23 @@
         <v>234</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="H62" s="7">
-        <v>80123</v>
+        <v>94203</v>
       </c>
       <c r="I62" s="3">
         <v>250000</v>
       </c>
       <c r="J62" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>10</v>
@@ -3237,7 +3208,7 @@
     </row>
     <row r="63" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B63" s="4">
         <v>1</v>
@@ -3249,23 +3220,23 @@
         <v>234</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>235</v>
+        <v>88</v>
+      </c>
+      <c r="H63" s="7">
+        <v>80123</v>
       </c>
       <c r="I63" s="3">
         <v>250000</v>
       </c>
       <c r="J63" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>10</v>
@@ -3282,7 +3253,7 @@
     </row>
     <row r="64" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
@@ -3294,23 +3265,23 @@
         <v>234</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H64" s="7">
-        <v>19901</v>
+        <v>89</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="I64" s="3">
         <v>250000</v>
       </c>
       <c r="J64" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>10</v>
@@ -3327,7 +3298,7 @@
     </row>
     <row r="65" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B65" s="4">
         <v>1</v>
@@ -3339,23 +3310,23 @@
         <v>234</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H65" s="7">
-        <v>32301</v>
+        <v>19901</v>
       </c>
       <c r="I65" s="3">
         <v>250000</v>
       </c>
       <c r="J65" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>10</v>
@@ -3372,7 +3343,7 @@
     </row>
     <row r="66" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B66" s="4">
         <v>1</v>
@@ -3384,23 +3355,23 @@
         <v>234</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="7">
-        <v>30301</v>
+        <v>32301</v>
       </c>
       <c r="I66" s="3">
         <v>250000</v>
       </c>
       <c r="J66" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>10</v>
@@ -3417,7 +3388,7 @@
     </row>
     <row r="67" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" s="4">
         <v>1</v>
@@ -3429,23 +3400,23 @@
         <v>234</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H67" s="7">
-        <v>96813</v>
+        <v>30301</v>
       </c>
       <c r="I67" s="3">
         <v>250000</v>
       </c>
       <c r="J67" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>10</v>
@@ -3462,7 +3433,7 @@
     </row>
     <row r="68" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B68" s="4">
         <v>1</v>
@@ -3474,23 +3445,23 @@
         <v>234</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H68" s="7">
-        <v>83701</v>
+        <v>96813</v>
       </c>
       <c r="I68" s="3">
         <v>250000</v>
       </c>
       <c r="J68" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>10</v>
@@ -3507,7 +3478,7 @@
     </row>
     <row r="69" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B69" s="4">
         <v>1</v>
@@ -3519,23 +3490,23 @@
         <v>234</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H69" s="7">
-        <v>62701</v>
+        <v>83701</v>
       </c>
       <c r="I69" s="3">
         <v>250000</v>
       </c>
       <c r="J69" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>10</v>
@@ -3552,7 +3523,7 @@
     </row>
     <row r="70" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B70" s="4">
         <v>1</v>
@@ -3564,23 +3535,23 @@
         <v>234</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H70" s="7">
-        <v>46201</v>
+        <v>62701</v>
       </c>
       <c r="I70" s="3">
         <v>250000</v>
       </c>
       <c r="J70" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>10</v>
@@ -3597,7 +3568,7 @@
     </row>
     <row r="71" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
@@ -3609,23 +3580,23 @@
         <v>234</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="H71" s="7">
-        <v>50301</v>
+        <v>46201</v>
       </c>
       <c r="I71" s="3">
         <v>250000</v>
       </c>
       <c r="J71" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>10</v>
@@ -3642,7 +3613,7 @@
     </row>
     <row r="72" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B72" s="4">
         <v>1</v>
@@ -3654,23 +3625,23 @@
         <v>234</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H72" s="7">
-        <v>66601</v>
+        <v>50301</v>
       </c>
       <c r="I72" s="3">
         <v>250000</v>
       </c>
       <c r="J72" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>10</v>
@@ -3687,7 +3658,7 @@
     </row>
     <row r="73" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B73" s="4">
         <v>1</v>
@@ -3699,23 +3670,23 @@
         <v>234</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H73" s="7">
-        <v>40601</v>
+        <v>66601</v>
       </c>
       <c r="I73" s="3">
         <v>250000</v>
       </c>
       <c r="J73" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>10</v>
@@ -3732,7 +3703,7 @@
     </row>
     <row r="74" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B74" s="4">
         <v>1</v>
@@ -3744,23 +3715,23 @@
         <v>234</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H74" s="7">
-        <v>70801</v>
+        <v>40601</v>
       </c>
       <c r="I74" s="3">
         <v>250000</v>
       </c>
       <c r="J74" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>10</v>
@@ -3777,7 +3748,7 @@
     </row>
     <row r="75" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B75" s="4">
         <v>1</v>
@@ -3789,23 +3760,23 @@
         <v>234</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>177</v>
+        <v>99</v>
+      </c>
+      <c r="H75" s="7">
+        <v>70801</v>
       </c>
       <c r="I75" s="3">
         <v>250000</v>
       </c>
       <c r="J75" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>10</v>
@@ -3822,7 +3793,7 @@
     </row>
     <row r="76" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B76" s="4">
         <v>1</v>
@@ -3834,23 +3805,23 @@
         <v>234</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H76" s="7">
-        <v>21401</v>
+        <v>100</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="I76" s="3">
         <v>250000</v>
       </c>
       <c r="J76" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>10</v>
@@ -3867,7 +3838,7 @@
     </row>
     <row r="77" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B77" s="4">
         <v>1</v>
@@ -3879,23 +3850,23 @@
         <v>234</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>238</v>
+        <v>101</v>
+      </c>
+      <c r="H77" s="7">
+        <v>21401</v>
       </c>
       <c r="I77" s="3">
         <v>250000</v>
       </c>
       <c r="J77" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>10</v>
@@ -3912,7 +3883,7 @@
     </row>
     <row r="78" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B78" s="4">
         <v>1</v>
@@ -3924,23 +3895,23 @@
         <v>234</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H78" s="7">
-        <v>48901</v>
+        <v>102</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="I78" s="3">
         <v>250000</v>
       </c>
       <c r="J78" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>10</v>
@@ -3957,7 +3928,7 @@
     </row>
     <row r="79" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B79" s="4">
         <v>1</v>
@@ -3969,23 +3940,23 @@
         <v>234</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H79" s="7">
-        <v>55101</v>
+        <v>48901</v>
       </c>
       <c r="I79" s="3">
         <v>250000</v>
       </c>
       <c r="J79" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>10</v>
@@ -4002,7 +3973,7 @@
     </row>
     <row r="80" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B80" s="4">
         <v>1</v>
@@ -4014,23 +3985,23 @@
         <v>234</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H80" s="7">
-        <v>39201</v>
+        <v>55101</v>
       </c>
       <c r="I80" s="3">
         <v>250000</v>
       </c>
       <c r="J80" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>10</v>
@@ -4047,7 +4018,7 @@
     </row>
     <row r="81" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B81" s="4">
         <v>1</v>
@@ -4059,23 +4030,23 @@
         <v>234</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H81" s="7">
-        <v>65101</v>
+        <v>39201</v>
       </c>
       <c r="I81" s="3">
         <v>250000</v>
       </c>
       <c r="J81" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>10</v>
@@ -4092,7 +4063,7 @@
     </row>
     <row r="82" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B82" s="4">
         <v>1</v>
@@ -4104,23 +4075,23 @@
         <v>234</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H82" s="7">
-        <v>59601</v>
+        <v>65101</v>
       </c>
       <c r="I82" s="3">
         <v>250000</v>
       </c>
       <c r="J82" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>10</v>
@@ -4137,7 +4108,7 @@
     </row>
     <row r="83" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B83" s="4">
         <v>1</v>
@@ -4149,23 +4120,23 @@
         <v>234</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H83" s="7">
-        <v>68501</v>
+        <v>59601</v>
       </c>
       <c r="I83" s="3">
         <v>250000</v>
       </c>
       <c r="J83" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
@@ -4182,7 +4153,7 @@
     </row>
     <row r="84" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B84" s="4">
         <v>1</v>
@@ -4194,23 +4165,23 @@
         <v>234</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H84" s="7">
-        <v>89701</v>
+        <v>68501</v>
       </c>
       <c r="I84" s="3">
         <v>250000</v>
       </c>
       <c r="J84" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>10</v>
@@ -4227,7 +4198,7 @@
     </row>
     <row r="85" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B85" s="4">
         <v>1</v>
@@ -4239,23 +4210,23 @@
         <v>234</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>236</v>
+        <v>111</v>
+      </c>
+      <c r="H85" s="7">
+        <v>89701</v>
       </c>
       <c r="I85" s="3">
         <v>250000</v>
       </c>
       <c r="J85" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>10</v>
@@ -4272,7 +4243,7 @@
     </row>
     <row r="86" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B86" s="4">
         <v>1</v>
@@ -4284,23 +4255,23 @@
         <v>234</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I86" s="3">
         <v>250000</v>
       </c>
       <c r="J86" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>10</v>
@@ -4317,7 +4288,7 @@
     </row>
     <row r="87" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B87" s="4">
         <v>1</v>
@@ -4329,23 +4300,23 @@
         <v>234</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H87" s="7">
-        <v>87501</v>
+        <v>113</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="I87" s="3">
         <v>250000</v>
       </c>
       <c r="J87" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>10</v>
@@ -4362,7 +4333,7 @@
     </row>
     <row r="88" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B88" s="4">
         <v>1</v>
@@ -4374,23 +4345,23 @@
         <v>234</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H88" s="7">
-        <v>12201</v>
+        <v>87501</v>
       </c>
       <c r="I88" s="3">
         <v>250000</v>
       </c>
       <c r="J88" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>10</v>
@@ -4407,7 +4378,7 @@
     </row>
     <row r="89" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B89" s="4">
         <v>1</v>
@@ -4419,23 +4390,23 @@
         <v>234</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H89" s="7">
-        <v>27601</v>
+        <v>12201</v>
       </c>
       <c r="I89" s="3">
         <v>250000</v>
       </c>
       <c r="J89" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>10</v>
@@ -4452,7 +4423,7 @@
     </row>
     <row r="90" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
@@ -4464,23 +4435,23 @@
         <v>234</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H90" s="7">
-        <v>58501</v>
+        <v>27601</v>
       </c>
       <c r="I90" s="3">
         <v>250000</v>
       </c>
       <c r="J90" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>10</v>
@@ -4497,7 +4468,7 @@
     </row>
     <row r="91" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B91" s="4">
         <v>1</v>
@@ -4509,23 +4480,23 @@
         <v>234</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H91" s="7">
-        <v>43085</v>
+        <v>58501</v>
       </c>
       <c r="I91" s="3">
         <v>250000</v>
       </c>
       <c r="J91" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
@@ -4542,7 +4513,7 @@
     </row>
     <row r="92" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B92" s="4">
         <v>1</v>
@@ -4554,23 +4525,23 @@
         <v>234</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H92" s="7">
-        <v>73101</v>
+        <v>43085</v>
       </c>
       <c r="I92" s="3">
         <v>250000</v>
       </c>
       <c r="J92" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>10</v>
@@ -4587,7 +4558,7 @@
     </row>
     <row r="93" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B93" s="4">
         <v>1</v>
@@ -4599,23 +4570,23 @@
         <v>234</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H93" s="7">
-        <v>97301</v>
+        <v>73101</v>
       </c>
       <c r="I93" s="3">
         <v>250000</v>
       </c>
       <c r="J93" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>10</v>
@@ -4632,7 +4603,7 @@
     </row>
     <row r="94" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B94" s="4">
         <v>1</v>
@@ -4644,23 +4615,23 @@
         <v>234</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H94" s="7">
-        <v>17101</v>
+        <v>97301</v>
       </c>
       <c r="I94" s="3">
         <v>250000</v>
       </c>
       <c r="J94" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -4677,7 +4648,7 @@
     </row>
     <row r="95" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B95" s="4">
         <v>1</v>
@@ -4689,23 +4660,23 @@
         <v>234</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>155</v>
+        <v>121</v>
+      </c>
+      <c r="H95" s="7">
+        <v>17101</v>
       </c>
       <c r="I95" s="3">
         <v>250000</v>
       </c>
       <c r="J95" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>10</v>
@@ -4722,7 +4693,7 @@
     </row>
     <row r="96" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B96" s="4">
         <v>1</v>
@@ -4734,23 +4705,23 @@
         <v>234</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H96" s="7">
-        <v>29201</v>
+        <v>122</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="I96" s="3">
         <v>250000</v>
       </c>
       <c r="J96" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>10</v>
@@ -4767,7 +4738,7 @@
     </row>
     <row r="97" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B97" s="4">
         <v>1</v>
@@ -4779,23 +4750,23 @@
         <v>234</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H97" s="7">
-        <v>57501</v>
+        <v>29201</v>
       </c>
       <c r="I97" s="3">
         <v>250000</v>
       </c>
       <c r="J97" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>10</v>
@@ -4812,7 +4783,7 @@
     </row>
     <row r="98" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B98" s="4">
         <v>1</v>
@@ -4824,23 +4795,23 @@
         <v>234</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H98" s="7">
-        <v>37115</v>
+        <v>57501</v>
       </c>
       <c r="I98" s="3">
         <v>250000</v>
       </c>
       <c r="J98" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>10</v>
@@ -4857,7 +4828,7 @@
     </row>
     <row r="99" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B99" s="4">
         <v>1</v>
@@ -4869,23 +4840,23 @@
         <v>234</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H99" s="7">
-        <v>73301</v>
+        <v>37115</v>
       </c>
       <c r="I99" s="3">
         <v>250000</v>
       </c>
       <c r="J99" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K99" s="3" t="s">
         <v>10</v>
@@ -4902,7 +4873,7 @@
     </row>
     <row r="100" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B100" s="4">
         <v>1</v>
@@ -4914,23 +4885,23 @@
         <v>234</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H100" s="7">
-        <v>84101</v>
+        <v>73301</v>
       </c>
       <c r="I100" s="3">
         <v>250000</v>
       </c>
       <c r="J100" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -4947,7 +4918,7 @@
     </row>
     <row r="101" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B101" s="4">
         <v>1</v>
@@ -4959,23 +4930,23 @@
         <v>234</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>156</v>
+        <v>127</v>
+      </c>
+      <c r="H101" s="7">
+        <v>84101</v>
       </c>
       <c r="I101" s="3">
         <v>250000</v>
       </c>
       <c r="J101" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
@@ -4992,7 +4963,7 @@
     </row>
     <row r="102" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B102" s="4">
         <v>1</v>
@@ -5004,23 +4975,23 @@
         <v>234</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H102" s="7">
-        <v>23218</v>
+        <v>128</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="I102" s="3">
         <v>250000</v>
       </c>
       <c r="J102" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>10</v>
@@ -5037,7 +5008,7 @@
     </row>
     <row r="103" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B103" s="4">
         <v>1</v>
@@ -5049,23 +5020,23 @@
         <v>234</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H103" s="7">
-        <v>98501</v>
+        <v>23218</v>
       </c>
       <c r="I103" s="3">
         <v>250000</v>
       </c>
       <c r="J103" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K103" s="3" t="s">
         <v>10</v>
@@ -5082,7 +5053,7 @@
     </row>
     <row r="104" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B104" s="4">
         <v>1</v>
@@ -5094,23 +5065,23 @@
         <v>234</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H104" s="7">
-        <v>25301</v>
+        <v>98501</v>
       </c>
       <c r="I104" s="3">
         <v>250000</v>
       </c>
       <c r="J104" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>10</v>
@@ -5127,7 +5098,7 @@
     </row>
     <row r="105" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B105" s="4">
         <v>1</v>
@@ -5139,23 +5110,23 @@
         <v>234</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H105" s="7">
-        <v>53705</v>
+        <v>25301</v>
       </c>
       <c r="I105" s="3">
         <v>250000</v>
       </c>
       <c r="J105" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>10</v>
@@ -5172,7 +5143,7 @@
     </row>
     <row r="106" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B106" s="4">
         <v>1</v>
@@ -5184,23 +5155,23 @@
         <v>234</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H106" s="7">
-        <v>82001</v>
+        <v>53705</v>
       </c>
       <c r="I106" s="3">
         <v>250000</v>
       </c>
       <c r="J106" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43137</v>
+        <v>43206</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>10</v>
@@ -5215,21 +5186,50 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
-      <c r="J107"/>
-      <c r="K107"/>
-      <c r="L107"/>
-      <c r="M107"/>
-      <c r="N107"/>
+    <row r="107" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B107" s="4">
+        <v>1</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H107" s="7">
+        <v>82001</v>
+      </c>
+      <c r="I107" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J107" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>43206</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M107" s="3">
+        <v>90</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="108" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A108"/>
@@ -5247,8 +5247,24 @@
       <c r="M108"/>
       <c r="N108"/>
     </row>
+    <row r="109" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N109" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/MMTM_Customer_Center.xlsx
+++ b/utilities/Excel_Sheets/Products/MMTM_Customer_Center.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regressions!$A$1:$N$94</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$110</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -1153,12 +1153,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="2" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1236,23 +1236,23 @@
         <v>234</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="7">
-        <v>94203</v>
+        <v>89</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="I2" s="3">
         <v>250000</v>
       </c>
       <c r="J2" s="5">
-        <f ca="1">TODAY()</f>
-        <v>43206</v>
+        <f t="shared" ref="J2:J15" ca="1" si="0">TODAY()</f>
+        <v>43242</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>10</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -1297,23 +1297,23 @@
         <v>234</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="H4" s="7">
-        <v>36101</v>
+        <v>94203</v>
       </c>
       <c r="I4" s="3">
         <v>250000</v>
       </c>
       <c r="J4" s="5">
-        <f ca="1">TODAY()+30</f>
-        <v>43236</v>
+        <f ca="1">TODAY()</f>
+        <v>43242</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>10</v>
@@ -1329,53 +1329,24 @@
       </c>
     </row>
     <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="7">
-        <v>99801</v>
-      </c>
-      <c r="I5" s="3">
-        <v>250000</v>
-      </c>
-      <c r="J5" s="5">
-        <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="3">
-        <v>90</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -1387,23 +1358,23 @@
         <v>234</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>85001</v>
+        <v>36101</v>
       </c>
       <c r="I6" s="3">
         <v>250000</v>
       </c>
       <c r="J6" s="5">
-        <f ca="1">TODAY()</f>
-        <v>43206</v>
+        <f ca="1">TODAY()+30</f>
+        <v>43272</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>10</v>
@@ -1420,7 +1391,7 @@
     </row>
     <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -1432,23 +1403,23 @@
         <v>234</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>72201</v>
+        <v>99801</v>
       </c>
       <c r="I7" s="3">
         <v>250000</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" ref="J7:J14" ca="1" si="0">TODAY()</f>
-        <v>43206</v>
+        <f ca="1">TODAY()</f>
+        <v>43242</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>10</v>
@@ -1464,24 +1435,53 @@
       </c>
     </row>
     <row r="8" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="7">
+        <v>85001</v>
+      </c>
+      <c r="I8" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J8" s="5">
+        <f ca="1">TODAY()</f>
+        <v>43242</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="3">
+        <v>90</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -1493,23 +1493,23 @@
         <v>234</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="H9" s="7">
-        <v>94203</v>
+        <v>72201</v>
       </c>
       <c r="I9" s="3">
         <v>250000</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>10</v>
@@ -1525,53 +1525,24 @@
       </c>
     </row>
     <row r="10" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="7">
-        <v>80123</v>
-      </c>
-      <c r="I10" s="3">
-        <v>250000</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>43206</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="3">
-        <v>90</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -1583,23 +1554,23 @@
         <v>234</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="H11" s="7">
-        <v>19901</v>
+        <v>94203</v>
       </c>
       <c r="I11" s="3">
         <v>250000</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>10</v>
@@ -1616,7 +1587,7 @@
     </row>
     <row r="12" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -1628,23 +1599,23 @@
         <v>234</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H12" s="7">
-        <v>32301</v>
+        <v>80123</v>
       </c>
       <c r="I12" s="3">
         <v>250000</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>10</v>
@@ -1661,7 +1632,7 @@
     </row>
     <row r="13" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -1673,23 +1644,23 @@
         <v>234</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
-        <v>30301</v>
+        <v>19901</v>
       </c>
       <c r="I13" s="3">
         <v>250000</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>10</v>
@@ -1706,7 +1677,7 @@
     </row>
     <row r="14" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -1718,23 +1689,23 @@
         <v>234</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>235</v>
+        <v>91</v>
+      </c>
+      <c r="H14" s="7">
+        <v>32301</v>
       </c>
       <c r="I14" s="3">
         <v>250000</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1750,1285 +1721,1285 @@
       </c>
     </row>
     <row r="15" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="4"/>
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="7">
+        <v>30301</v>
+      </c>
+      <c r="I15" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43242</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="3">
+        <v>90</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H17" s="7">
         <v>94203</v>
       </c>
-      <c r="I16" s="3">
-        <v>250000</v>
-      </c>
-      <c r="J16" s="5">
+      <c r="I17" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J17" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="3">
-        <v>90</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="4"/>
+        <v>43242</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="3">
+        <v>90</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B19" s="4">
         <v>6</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H19" s="8">
         <v>94203</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I19" s="3">
         <v>1000001</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J19" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="3">
-        <v>90</v>
-      </c>
-      <c r="N18" s="4" t="s">
+        <v>43242</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="3">
+        <v>90</v>
+      </c>
+      <c r="N19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
-    </row>
     <row r="20" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B21" s="4">
         <v>7</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="C21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H21" s="8">
         <v>94203</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I21" s="3">
         <v>2500001</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J21" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="3">
-        <v>90</v>
-      </c>
-      <c r="N20" s="4" t="s">
+        <v>43242</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="3">
+        <v>90</v>
+      </c>
+      <c r="N21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="4"/>
-    </row>
     <row r="22" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B23" s="4">
         <v>5</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H23" s="8">
         <v>94203</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I23" s="3">
         <v>500001</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J23" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="3">
-        <v>90</v>
-      </c>
-      <c r="N22" s="4" t="s">
+        <v>43242</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="3">
+        <v>90</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="4"/>
-    </row>
     <row r="24" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B25" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="C25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H25" s="8">
         <v>94203</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I25" s="3">
         <v>499999</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J25" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="3">
-        <v>90</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25" s="9"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-    </row>
-    <row r="26" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+        <v>43242</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="3">
+        <v>90</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26" s="9"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B27" s="4">
         <v>3</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="C27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H27" s="8">
         <v>94203</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I27" s="3">
         <v>499999</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J27" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M26" s="3">
-        <v>90</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27" s="9"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-    </row>
-    <row r="28" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+        <v>43242</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="3">
+        <v>90</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28" s="9"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B29" s="4">
         <v>4</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="C29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H29" s="8">
         <v>94203</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I29" s="3">
         <v>499999</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J29" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="3">
-        <v>90</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="H29" s="9"/>
+        <v>43242</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="3">
+        <v>90</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H31" s="8">
         <v>94203</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I31" s="3">
         <v>499999</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J31" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M30" s="3">
-        <v>90</v>
-      </c>
-      <c r="N30" s="4" t="s">
+        <v>43242</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>90</v>
+      </c>
+      <c r="N31" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="H31" s="9"/>
-    </row>
     <row r="32" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B33" s="4">
         <v>2</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="C33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H33" s="8">
         <v>94203</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I33" s="3">
         <v>499999</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J33" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>90</v>
-      </c>
-      <c r="N32" s="4" t="s">
+        <v>43242</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="3">
+        <v>90</v>
+      </c>
+      <c r="N33" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33" s="9"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-    </row>
-    <row r="34" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34" s="9"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+    </row>
+    <row r="35" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B35" s="4">
         <v>3</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="C35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H35" s="8">
         <v>94203</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I35" s="3">
         <v>499999</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J35" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M34" s="3">
-        <v>90</v>
-      </c>
-      <c r="N34" s="4" t="s">
+        <v>43242</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="3">
+        <v>90</v>
+      </c>
+      <c r="N35" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35" s="9"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-    </row>
-    <row r="36" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36" s="9"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B37" s="4">
         <v>4</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="C37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H37" s="8">
         <v>94203</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I37" s="3">
         <v>499999</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J37" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M36" s="3">
-        <v>90</v>
-      </c>
-      <c r="N36" s="4" t="s">
+        <v>43242</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" s="3">
+        <v>90</v>
+      </c>
+      <c r="N37" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="H37" s="9"/>
-    </row>
     <row r="38" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="4">
-        <v>1</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H39" s="8">
         <v>94203</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I39" s="3">
         <v>499999</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J39" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M38" s="3">
-        <v>90</v>
-      </c>
-      <c r="N38" s="4" t="s">
+        <v>43242</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" s="3">
+        <v>90</v>
+      </c>
+      <c r="N39" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="H39" s="9"/>
-    </row>
     <row r="40" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B41" s="4">
         <v>2</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E40" s="4" t="s">
+      <c r="C41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H41" s="8">
         <v>94203</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I41" s="3">
         <v>499999</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J41" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M40" s="3">
-        <v>90</v>
-      </c>
-      <c r="N40" s="4" t="s">
+        <v>43242</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="3">
+        <v>90</v>
+      </c>
+      <c r="N41" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41" s="9"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-    </row>
-    <row r="42" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42" s="9"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+    </row>
+    <row r="43" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B43" s="4">
         <v>3</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E42" s="4" t="s">
+      <c r="C43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H43" s="8">
         <v>94203</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I43" s="3">
         <v>499999</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J43" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M42" s="3">
-        <v>90</v>
-      </c>
-      <c r="N42" s="4" t="s">
+        <v>43242</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" s="3">
+        <v>90</v>
+      </c>
+      <c r="N43" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43" s="9"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-    </row>
-    <row r="44" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44" s="9"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+    </row>
+    <row r="45" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B45" s="4">
         <v>4</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E44" s="4" t="s">
+      <c r="C45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H45" s="8">
         <v>94203</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I45" s="3">
         <v>499999</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J45" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M44" s="3">
-        <v>90</v>
-      </c>
-      <c r="N44" s="4" t="s">
+        <v>43242</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="3">
+        <v>90</v>
+      </c>
+      <c r="N45" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="H45" s="9"/>
-    </row>
     <row r="46" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B47" s="4">
         <v>5</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="C47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H47" s="8">
         <v>94203</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I47" s="3">
         <v>500000</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J47" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M46" s="3">
-        <v>90</v>
-      </c>
-      <c r="N46" s="4" t="s">
+        <v>43242</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" s="3">
+        <v>90</v>
+      </c>
+      <c r="N47" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47" s="9"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-    </row>
-    <row r="48" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48" s="9"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+    </row>
+    <row r="49" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B49" s="4">
         <v>5</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="C49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H49" s="8">
         <v>94203</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I49" s="3">
         <v>500001</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J49" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M48" s="3">
-        <v>90</v>
-      </c>
-      <c r="N48" s="4" t="s">
+        <v>43242</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" s="3">
+        <v>90</v>
+      </c>
+      <c r="N49" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49" s="9"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-    </row>
-    <row r="50" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50" s="9"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+    </row>
+    <row r="51" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B51" s="4">
         <v>6</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="C51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H51" s="8">
         <v>94203</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I51" s="3">
         <v>1000000</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J51" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M50" s="3">
-        <v>90</v>
-      </c>
-      <c r="N50" s="4" t="s">
+        <v>43242</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" s="3">
+        <v>90</v>
+      </c>
+      <c r="N51" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51" s="9"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
-    </row>
-    <row r="52" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52" s="9"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+    </row>
+    <row r="53" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B53" s="4">
         <v>6</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E52" s="4" t="s">
+      <c r="C53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H53" s="8">
         <v>94203</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I53" s="3">
         <v>1000001</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J53" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M52" s="3">
-        <v>90</v>
-      </c>
-      <c r="N52" s="4" t="s">
+        <v>43242</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M53" s="3">
+        <v>90</v>
+      </c>
+      <c r="N53" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53" s="9"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
-    </row>
-    <row r="54" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54" s="9"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+    </row>
+    <row r="55" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B55" s="4">
         <v>7</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E54" s="4" t="s">
+      <c r="C55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H55" s="8">
         <v>94203</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I55" s="3">
         <v>2500001</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J55" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M54" s="3">
-        <v>90</v>
-      </c>
-      <c r="N54" s="4" t="s">
+        <v>43242</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="3">
+        <v>90</v>
+      </c>
+      <c r="N55" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55" s="9"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-    </row>
-    <row r="56" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56" s="9"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+    </row>
+    <row r="57" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B57" s="4">
         <v>7</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E56" s="4" t="s">
+      <c r="C57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H57" s="8">
         <v>94203</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I57" s="3">
         <v>2500001</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J57" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M56" s="3">
-        <v>90</v>
-      </c>
-      <c r="N56" s="4" t="s">
+        <v>43242</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="3">
+        <v>90</v>
+      </c>
+      <c r="N57" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57" s="9"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-    </row>
-    <row r="58" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="4">
-        <v>1</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H58" s="7">
-        <v>36101</v>
-      </c>
-      <c r="I58" s="3">
-        <v>250000</v>
-      </c>
-      <c r="J58" s="5">
-        <f ca="1">TODAY()</f>
-        <v>43206</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M58" s="3">
-        <v>90</v>
-      </c>
-      <c r="N58" s="4" t="s">
-        <v>16</v>
-      </c>
+    <row r="58" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58" s="9"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
     </row>
     <row r="59" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B59" s="4">
         <v>1</v>
@@ -3040,23 +3011,23 @@
         <v>234</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H59" s="7">
-        <v>99801</v>
+        <v>36101</v>
       </c>
       <c r="I59" s="3">
         <v>250000</v>
       </c>
       <c r="J59" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>10</v>
@@ -3073,7 +3044,7 @@
     </row>
     <row r="60" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B60" s="4">
         <v>1</v>
@@ -3085,23 +3056,23 @@
         <v>234</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H60" s="7">
-        <v>85001</v>
+        <v>99801</v>
       </c>
       <c r="I60" s="3">
         <v>250000</v>
       </c>
       <c r="J60" s="5">
         <f ca="1">TODAY()</f>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>10</v>
@@ -3118,7 +3089,7 @@
     </row>
     <row r="61" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B61" s="4">
         <v>1</v>
@@ -3130,23 +3101,23 @@
         <v>234</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="H61" s="7">
-        <v>72201</v>
+        <v>85001</v>
       </c>
       <c r="I61" s="3">
         <v>250000</v>
       </c>
       <c r="J61" s="5">
-        <f t="shared" ref="J61:J107" ca="1" si="1">TODAY()</f>
-        <v>43206</v>
+        <f ca="1">TODAY()</f>
+        <v>43242</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>10</v>
@@ -3163,7 +3134,7 @@
     </row>
     <row r="62" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
@@ -3175,23 +3146,23 @@
         <v>234</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="H62" s="7">
-        <v>94203</v>
+        <v>72201</v>
       </c>
       <c r="I62" s="3">
         <v>250000</v>
       </c>
       <c r="J62" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <f t="shared" ref="J62:J108" ca="1" si="1">TODAY()</f>
+        <v>43242</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>10</v>
@@ -3208,7 +3179,7 @@
     </row>
     <row r="63" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B63" s="4">
         <v>1</v>
@@ -3220,23 +3191,23 @@
         <v>234</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="H63" s="7">
-        <v>80123</v>
+        <v>94203</v>
       </c>
       <c r="I63" s="3">
         <v>250000</v>
       </c>
       <c r="J63" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>10</v>
@@ -3253,7 +3224,7 @@
     </row>
     <row r="64" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
@@ -3265,23 +3236,23 @@
         <v>234</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>235</v>
+        <v>88</v>
+      </c>
+      <c r="H64" s="7">
+        <v>80123</v>
       </c>
       <c r="I64" s="3">
         <v>250000</v>
       </c>
       <c r="J64" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>10</v>
@@ -3298,7 +3269,7 @@
     </row>
     <row r="65" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B65" s="4">
         <v>1</v>
@@ -3310,23 +3281,23 @@
         <v>234</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H65" s="7">
-        <v>19901</v>
+        <v>89</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="I65" s="3">
         <v>250000</v>
       </c>
       <c r="J65" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>10</v>
@@ -3343,7 +3314,7 @@
     </row>
     <row r="66" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66" s="4">
         <v>1</v>
@@ -3355,23 +3326,23 @@
         <v>234</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H66" s="7">
-        <v>32301</v>
+        <v>19901</v>
       </c>
       <c r="I66" s="3">
         <v>250000</v>
       </c>
       <c r="J66" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>10</v>
@@ -3388,7 +3359,7 @@
     </row>
     <row r="67" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B67" s="4">
         <v>1</v>
@@ -3400,23 +3371,23 @@
         <v>234</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" s="7">
-        <v>30301</v>
+        <v>32301</v>
       </c>
       <c r="I67" s="3">
         <v>250000</v>
       </c>
       <c r="J67" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>10</v>
@@ -3433,7 +3404,7 @@
     </row>
     <row r="68" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" s="4">
         <v>1</v>
@@ -3445,23 +3416,23 @@
         <v>234</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H68" s="7">
-        <v>96813</v>
+        <v>30301</v>
       </c>
       <c r="I68" s="3">
         <v>250000</v>
       </c>
       <c r="J68" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>10</v>
@@ -3478,7 +3449,7 @@
     </row>
     <row r="69" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B69" s="4">
         <v>1</v>
@@ -3490,23 +3461,23 @@
         <v>234</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H69" s="7">
-        <v>83701</v>
+        <v>96813</v>
       </c>
       <c r="I69" s="3">
         <v>250000</v>
       </c>
       <c r="J69" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>10</v>
@@ -3523,7 +3494,7 @@
     </row>
     <row r="70" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" s="4">
         <v>1</v>
@@ -3535,23 +3506,23 @@
         <v>234</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H70" s="7">
-        <v>62701</v>
+        <v>83701</v>
       </c>
       <c r="I70" s="3">
         <v>250000</v>
       </c>
       <c r="J70" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>10</v>
@@ -3568,7 +3539,7 @@
     </row>
     <row r="71" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
@@ -3580,23 +3551,23 @@
         <v>234</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H71" s="7">
-        <v>46201</v>
+        <v>62701</v>
       </c>
       <c r="I71" s="3">
         <v>250000</v>
       </c>
       <c r="J71" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>10</v>
@@ -3613,7 +3584,7 @@
     </row>
     <row r="72" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B72" s="4">
         <v>1</v>
@@ -3625,23 +3596,23 @@
         <v>234</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="H72" s="7">
-        <v>50301</v>
+        <v>46201</v>
       </c>
       <c r="I72" s="3">
         <v>250000</v>
       </c>
       <c r="J72" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>10</v>
@@ -3658,7 +3629,7 @@
     </row>
     <row r="73" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B73" s="4">
         <v>1</v>
@@ -3670,23 +3641,23 @@
         <v>234</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H73" s="7">
-        <v>66601</v>
+        <v>50301</v>
       </c>
       <c r="I73" s="3">
         <v>250000</v>
       </c>
       <c r="J73" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>10</v>
@@ -3703,7 +3674,7 @@
     </row>
     <row r="74" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B74" s="4">
         <v>1</v>
@@ -3715,23 +3686,23 @@
         <v>234</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H74" s="7">
-        <v>40601</v>
+        <v>66601</v>
       </c>
       <c r="I74" s="3">
         <v>250000</v>
       </c>
       <c r="J74" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>10</v>
@@ -3748,7 +3719,7 @@
     </row>
     <row r="75" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B75" s="4">
         <v>1</v>
@@ -3760,23 +3731,23 @@
         <v>234</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H75" s="7">
-        <v>70801</v>
+        <v>40601</v>
       </c>
       <c r="I75" s="3">
         <v>250000</v>
       </c>
       <c r="J75" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>10</v>
@@ -3793,7 +3764,7 @@
     </row>
     <row r="76" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B76" s="4">
         <v>1</v>
@@ -3805,23 +3776,23 @@
         <v>234</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>177</v>
+        <v>99</v>
+      </c>
+      <c r="H76" s="7">
+        <v>70801</v>
       </c>
       <c r="I76" s="3">
         <v>250000</v>
       </c>
       <c r="J76" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>10</v>
@@ -3838,7 +3809,7 @@
     </row>
     <row r="77" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B77" s="4">
         <v>1</v>
@@ -3850,23 +3821,23 @@
         <v>234</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H77" s="7">
-        <v>21401</v>
+        <v>100</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="I77" s="3">
         <v>250000</v>
       </c>
       <c r="J77" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>10</v>
@@ -3883,7 +3854,7 @@
     </row>
     <row r="78" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B78" s="4">
         <v>1</v>
@@ -3895,23 +3866,23 @@
         <v>234</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>238</v>
+        <v>101</v>
+      </c>
+      <c r="H78" s="7">
+        <v>21401</v>
       </c>
       <c r="I78" s="3">
         <v>250000</v>
       </c>
       <c r="J78" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>10</v>
@@ -3928,7 +3899,7 @@
     </row>
     <row r="79" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B79" s="4">
         <v>1</v>
@@ -3940,23 +3911,23 @@
         <v>234</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H79" s="7">
-        <v>48901</v>
+        <v>102</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="I79" s="3">
         <v>250000</v>
       </c>
       <c r="J79" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>10</v>
@@ -3973,7 +3944,7 @@
     </row>
     <row r="80" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B80" s="4">
         <v>1</v>
@@ -3985,23 +3956,23 @@
         <v>234</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H80" s="7">
-        <v>55101</v>
+        <v>48901</v>
       </c>
       <c r="I80" s="3">
         <v>250000</v>
       </c>
       <c r="J80" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>10</v>
@@ -4018,7 +3989,7 @@
     </row>
     <row r="81" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B81" s="4">
         <v>1</v>
@@ -4030,23 +4001,23 @@
         <v>234</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H81" s="7">
-        <v>39201</v>
+        <v>55101</v>
       </c>
       <c r="I81" s="3">
         <v>250000</v>
       </c>
       <c r="J81" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>10</v>
@@ -4063,7 +4034,7 @@
     </row>
     <row r="82" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B82" s="4">
         <v>1</v>
@@ -4075,23 +4046,23 @@
         <v>234</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H82" s="7">
-        <v>65101</v>
+        <v>39201</v>
       </c>
       <c r="I82" s="3">
         <v>250000</v>
       </c>
       <c r="J82" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>10</v>
@@ -4108,7 +4079,7 @@
     </row>
     <row r="83" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B83" s="4">
         <v>1</v>
@@ -4120,23 +4091,23 @@
         <v>234</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H83" s="7">
-        <v>59601</v>
+        <v>65101</v>
       </c>
       <c r="I83" s="3">
         <v>250000</v>
       </c>
       <c r="J83" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
@@ -4153,7 +4124,7 @@
     </row>
     <row r="84" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B84" s="4">
         <v>1</v>
@@ -4165,23 +4136,23 @@
         <v>234</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H84" s="7">
-        <v>68501</v>
+        <v>59601</v>
       </c>
       <c r="I84" s="3">
         <v>250000</v>
       </c>
       <c r="J84" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>10</v>
@@ -4198,7 +4169,7 @@
     </row>
     <row r="85" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B85" s="4">
         <v>1</v>
@@ -4210,23 +4181,23 @@
         <v>234</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H85" s="7">
-        <v>89701</v>
+        <v>68501</v>
       </c>
       <c r="I85" s="3">
         <v>250000</v>
       </c>
       <c r="J85" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>10</v>
@@ -4243,7 +4214,7 @@
     </row>
     <row r="86" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B86" s="4">
         <v>1</v>
@@ -4255,23 +4226,23 @@
         <v>234</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>236</v>
+        <v>111</v>
+      </c>
+      <c r="H86" s="7">
+        <v>89701</v>
       </c>
       <c r="I86" s="3">
         <v>250000</v>
       </c>
       <c r="J86" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>10</v>
@@ -4288,7 +4259,7 @@
     </row>
     <row r="87" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B87" s="4">
         <v>1</v>
@@ -4300,23 +4271,23 @@
         <v>234</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I87" s="3">
         <v>250000</v>
       </c>
       <c r="J87" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>10</v>
@@ -4333,7 +4304,7 @@
     </row>
     <row r="88" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B88" s="4">
         <v>1</v>
@@ -4345,23 +4316,23 @@
         <v>234</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H88" s="7">
-        <v>87501</v>
+        <v>113</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="I88" s="3">
         <v>250000</v>
       </c>
       <c r="J88" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>10</v>
@@ -4378,7 +4349,7 @@
     </row>
     <row r="89" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B89" s="4">
         <v>1</v>
@@ -4390,23 +4361,23 @@
         <v>234</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H89" s="7">
-        <v>12201</v>
+        <v>87501</v>
       </c>
       <c r="I89" s="3">
         <v>250000</v>
       </c>
       <c r="J89" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>10</v>
@@ -4423,7 +4394,7 @@
     </row>
     <row r="90" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
@@ -4435,23 +4406,23 @@
         <v>234</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H90" s="7">
-        <v>27601</v>
+        <v>12201</v>
       </c>
       <c r="I90" s="3">
         <v>250000</v>
       </c>
       <c r="J90" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>10</v>
@@ -4468,7 +4439,7 @@
     </row>
     <row r="91" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B91" s="4">
         <v>1</v>
@@ -4480,23 +4451,23 @@
         <v>234</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H91" s="7">
-        <v>58501</v>
+        <v>27601</v>
       </c>
       <c r="I91" s="3">
         <v>250000</v>
       </c>
       <c r="J91" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
@@ -4513,7 +4484,7 @@
     </row>
     <row r="92" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B92" s="4">
         <v>1</v>
@@ -4525,23 +4496,23 @@
         <v>234</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H92" s="7">
-        <v>43085</v>
+        <v>58501</v>
       </c>
       <c r="I92" s="3">
         <v>250000</v>
       </c>
       <c r="J92" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>10</v>
@@ -4558,7 +4529,7 @@
     </row>
     <row r="93" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B93" s="4">
         <v>1</v>
@@ -4570,23 +4541,23 @@
         <v>234</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H93" s="7">
-        <v>73101</v>
+        <v>43085</v>
       </c>
       <c r="I93" s="3">
         <v>250000</v>
       </c>
       <c r="J93" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>10</v>
@@ -4603,7 +4574,7 @@
     </row>
     <row r="94" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B94" s="4">
         <v>1</v>
@@ -4615,23 +4586,23 @@
         <v>234</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H94" s="7">
-        <v>97301</v>
+        <v>73101</v>
       </c>
       <c r="I94" s="3">
         <v>250000</v>
       </c>
       <c r="J94" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -4648,7 +4619,7 @@
     </row>
     <row r="95" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B95" s="4">
         <v>1</v>
@@ -4660,23 +4631,23 @@
         <v>234</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H95" s="7">
-        <v>17101</v>
+        <v>97301</v>
       </c>
       <c r="I95" s="3">
         <v>250000</v>
       </c>
       <c r="J95" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>10</v>
@@ -4693,7 +4664,7 @@
     </row>
     <row r="96" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B96" s="4">
         <v>1</v>
@@ -4705,23 +4676,23 @@
         <v>234</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>155</v>
+        <v>121</v>
+      </c>
+      <c r="H96" s="7">
+        <v>17101</v>
       </c>
       <c r="I96" s="3">
         <v>250000</v>
       </c>
       <c r="J96" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>10</v>
@@ -4738,7 +4709,7 @@
     </row>
     <row r="97" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B97" s="4">
         <v>1</v>
@@ -4750,23 +4721,23 @@
         <v>234</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H97" s="7">
-        <v>29201</v>
+        <v>122</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="I97" s="3">
         <v>250000</v>
       </c>
       <c r="J97" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>10</v>
@@ -4783,7 +4754,7 @@
     </row>
     <row r="98" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B98" s="4">
         <v>1</v>
@@ -4795,23 +4766,23 @@
         <v>234</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H98" s="7">
-        <v>57501</v>
+        <v>29201</v>
       </c>
       <c r="I98" s="3">
         <v>250000</v>
       </c>
       <c r="J98" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>10</v>
@@ -4828,7 +4799,7 @@
     </row>
     <row r="99" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B99" s="4">
         <v>1</v>
@@ -4840,23 +4811,23 @@
         <v>234</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H99" s="7">
-        <v>37115</v>
+        <v>57501</v>
       </c>
       <c r="I99" s="3">
         <v>250000</v>
       </c>
       <c r="J99" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K99" s="3" t="s">
         <v>10</v>
@@ -4873,7 +4844,7 @@
     </row>
     <row r="100" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B100" s="4">
         <v>1</v>
@@ -4885,23 +4856,23 @@
         <v>234</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H100" s="7">
-        <v>73301</v>
+        <v>37115</v>
       </c>
       <c r="I100" s="3">
         <v>250000</v>
       </c>
       <c r="J100" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -4918,7 +4889,7 @@
     </row>
     <row r="101" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B101" s="4">
         <v>1</v>
@@ -4930,23 +4901,23 @@
         <v>234</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H101" s="7">
-        <v>84101</v>
+        <v>73301</v>
       </c>
       <c r="I101" s="3">
         <v>250000</v>
       </c>
       <c r="J101" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
@@ -4963,7 +4934,7 @@
     </row>
     <row r="102" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B102" s="4">
         <v>1</v>
@@ -4975,23 +4946,23 @@
         <v>234</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>156</v>
+        <v>127</v>
+      </c>
+      <c r="H102" s="7">
+        <v>84101</v>
       </c>
       <c r="I102" s="3">
         <v>250000</v>
       </c>
       <c r="J102" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>10</v>
@@ -5008,7 +4979,7 @@
     </row>
     <row r="103" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B103" s="4">
         <v>1</v>
@@ -5020,23 +4991,23 @@
         <v>234</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H103" s="7">
-        <v>23218</v>
+        <v>128</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="I103" s="3">
         <v>250000</v>
       </c>
       <c r="J103" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K103" s="3" t="s">
         <v>10</v>
@@ -5053,7 +5024,7 @@
     </row>
     <row r="104" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B104" s="4">
         <v>1</v>
@@ -5065,23 +5036,23 @@
         <v>234</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H104" s="7">
-        <v>98501</v>
+        <v>23218</v>
       </c>
       <c r="I104" s="3">
         <v>250000</v>
       </c>
       <c r="J104" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>10</v>
@@ -5098,7 +5069,7 @@
     </row>
     <row r="105" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B105" s="4">
         <v>1</v>
@@ -5110,23 +5081,23 @@
         <v>234</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H105" s="7">
-        <v>25301</v>
+        <v>98501</v>
       </c>
       <c r="I105" s="3">
         <v>250000</v>
       </c>
       <c r="J105" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>10</v>
@@ -5143,7 +5114,7 @@
     </row>
     <row r="106" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B106" s="4">
         <v>1</v>
@@ -5155,23 +5126,23 @@
         <v>234</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H106" s="7">
-        <v>53705</v>
+        <v>25301</v>
       </c>
       <c r="I106" s="3">
         <v>250000</v>
       </c>
       <c r="J106" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>10</v>
@@ -5188,7 +5159,7 @@
     </row>
     <row r="107" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B107" s="4">
         <v>1</v>
@@ -5200,23 +5171,23 @@
         <v>234</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H107" s="7">
-        <v>82001</v>
+        <v>53705</v>
       </c>
       <c r="I107" s="3">
         <v>250000</v>
       </c>
       <c r="J107" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43206</v>
+        <v>43242</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>10</v>
@@ -5231,21 +5202,50 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108"/>
-      <c r="G108"/>
-      <c r="H108"/>
-      <c r="I108"/>
-      <c r="J108"/>
-      <c r="K108"/>
-      <c r="L108"/>
-      <c r="M108"/>
-      <c r="N108"/>
+    <row r="108" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" s="4">
+        <v>1</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H108" s="7">
+        <v>82001</v>
+      </c>
+      <c r="I108" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J108" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>43242</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M108" s="3">
+        <v>90</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="109" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A109"/>
@@ -5263,8 +5263,24 @@
       <c r="M109"/>
       <c r="N109"/>
     </row>
+    <row r="110" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N109" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N110" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/MMTM_Customer_Center.xlsx
+++ b/utilities/Excel_Sheets/Products/MMTM_Customer_Center.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Regressions" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regressions!$A$1:$N$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regressions!$A$1:$N$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$110</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="239">
   <si>
     <t>State</t>
   </si>
@@ -1155,7 +1155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="J2" s="5">
         <f t="shared" ref="J2:J15" ca="1" si="0">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>10</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="J4" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>10</v>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="J6" s="5">
         <f ca="1">TODAY()+30</f>
-        <v>43272</v>
+        <v>43292</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>10</v>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="J7" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>10</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="J8" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>10</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="J9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>10</v>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="J11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>10</v>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="J12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>10</v>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="J13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>10</v>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="J14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="J15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J17" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>10</v>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="J19" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>10</v>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J21" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="J23" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>10</v>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="J25" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>10</v>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="J27" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>10</v>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="J29" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="J31" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>10</v>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="J33" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>10</v>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="J35" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>10</v>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="J37" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>10</v>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="J39" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>10</v>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="J41" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>10</v>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="J43" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>10</v>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="J45" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>10</v>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="J47" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>10</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="J49" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>10</v>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="J51" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>10</v>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="J53" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>10</v>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="J55" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>10</v>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="J57" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>10</v>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="J59" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>10</v>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="J60" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>10</v>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="J61" s="5">
         <f ca="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>10</v>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="J62" s="5">
         <f t="shared" ref="J62:J108" ca="1" si="1">TODAY()</f>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>10</v>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="J63" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>10</v>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="J64" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>10</v>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="J65" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>10</v>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="J66" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>10</v>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="J67" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>10</v>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="J68" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>10</v>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="J69" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>10</v>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="J70" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>10</v>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="J71" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>10</v>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="J72" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>10</v>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="J73" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>10</v>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="J74" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>10</v>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="J75" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>10</v>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="J76" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>10</v>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="J77" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>10</v>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="J78" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>10</v>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="J79" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>10</v>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="J80" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>10</v>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="J81" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>10</v>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="J82" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>10</v>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="J83" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="J84" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>10</v>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="J85" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>10</v>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="J86" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>10</v>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="J87" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>10</v>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="J88" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>10</v>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="J89" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>10</v>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="J90" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>10</v>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="J91" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="J92" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>10</v>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="J93" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>10</v>
@@ -4602,7 +4602,7 @@
       </c>
       <c r="J94" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="J95" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>10</v>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="J96" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>10</v>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="J97" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>10</v>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="J98" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>10</v>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="J99" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K99" s="3" t="s">
         <v>10</v>
@@ -4872,7 +4872,7 @@
       </c>
       <c r="J100" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="J101" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="J102" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>10</v>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="J103" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K103" s="3" t="s">
         <v>10</v>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="J104" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>10</v>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="J105" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>10</v>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="J106" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>10</v>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="J107" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>10</v>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="J108" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43242</v>
+        <v>43262</v>
       </c>
       <c r="K108" s="3" t="s">
         <v>10</v>
@@ -5288,12 +5288,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEB446C-92F7-46D0-A27D-E34457525106}">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5358,7 +5358,7 @@
     </row>
     <row r="2" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -5370,16 +5370,16 @@
         <v>234</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="H2" s="4">
-        <v>36101</v>
+        <v>94203</v>
       </c>
       <c r="I2" s="3">
         <v>250000</v>
@@ -5401,52 +5401,24 @@
       </c>
     </row>
     <row r="3" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="4">
-        <v>99801</v>
-      </c>
-      <c r="I3" s="3">
-        <v>250000</v>
-      </c>
-      <c r="J3" s="5">
-        <v>43080</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="3">
-        <v>90</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -5458,16 +5430,16 @@
         <v>234</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4">
-        <v>85001</v>
+        <v>36101</v>
       </c>
       <c r="I4" s="3">
         <v>250000</v>
@@ -5490,7 +5462,7 @@
     </row>
     <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -5502,16 +5474,16 @@
         <v>234</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="H5" s="4">
-        <v>72201</v>
+        <v>99801</v>
       </c>
       <c r="I5" s="3">
         <v>250000</v>
@@ -5534,7 +5506,7 @@
     </row>
     <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -5546,16 +5518,16 @@
         <v>234</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="H6" s="4">
-        <v>94203</v>
+        <v>85001</v>
       </c>
       <c r="I6" s="3">
         <v>250000</v>
@@ -5578,7 +5550,7 @@
     </row>
     <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -5590,16 +5562,16 @@
         <v>234</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" s="4">
-        <v>80123</v>
+        <v>72201</v>
       </c>
       <c r="I7" s="3">
         <v>250000</v>
@@ -5622,7 +5594,7 @@
     </row>
     <row r="8" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -5634,16 +5606,16 @@
         <v>234</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="H8" s="4">
-        <v>6101</v>
+        <v>94203</v>
       </c>
       <c r="I8" s="3">
         <v>250000</v>
@@ -5666,7 +5638,7 @@
     </row>
     <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -5678,16 +5650,16 @@
         <v>234</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H9" s="4">
-        <v>19901</v>
+        <v>80123</v>
       </c>
       <c r="I9" s="3">
         <v>250000</v>
@@ -5710,7 +5682,7 @@
     </row>
     <row r="10" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -5722,16 +5694,16 @@
         <v>234</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H10" s="4">
-        <v>32301</v>
+        <v>6101</v>
       </c>
       <c r="I10" s="3">
         <v>250000</v>
@@ -5754,7 +5726,7 @@
     </row>
     <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -5766,16 +5738,16 @@
         <v>234</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H11" s="4">
-        <v>30301</v>
+        <v>19901</v>
       </c>
       <c r="I11" s="3">
         <v>250000</v>
@@ -5798,7 +5770,7 @@
     </row>
     <row r="12" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -5810,16 +5782,16 @@
         <v>234</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H12" s="4">
-        <v>96813</v>
+        <v>32301</v>
       </c>
       <c r="I12" s="3">
         <v>250000</v>
@@ -5842,7 +5814,7 @@
     </row>
     <row r="13" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -5854,16 +5826,16 @@
         <v>234</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H13" s="4">
-        <v>83701</v>
+        <v>30301</v>
       </c>
       <c r="I13" s="3">
         <v>250000</v>
@@ -5886,7 +5858,7 @@
     </row>
     <row r="14" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -5898,16 +5870,16 @@
         <v>234</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H14" s="4">
-        <v>62701</v>
+        <v>96813</v>
       </c>
       <c r="I14" s="3">
         <v>250000</v>
@@ -5930,7 +5902,7 @@
     </row>
     <row r="15" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -5942,16 +5914,16 @@
         <v>234</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H15" s="4">
-        <v>46201</v>
+        <v>83701</v>
       </c>
       <c r="I15" s="3">
         <v>250000</v>
@@ -5974,7 +5946,7 @@
     </row>
     <row r="16" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -5986,16 +5958,16 @@
         <v>234</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H16" s="4">
-        <v>50301</v>
+        <v>62701</v>
       </c>
       <c r="I16" s="3">
         <v>250000</v>
@@ -6018,7 +5990,7 @@
     </row>
     <row r="17" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -6030,16 +6002,16 @@
         <v>234</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H17" s="4">
-        <v>66601</v>
+        <v>46201</v>
       </c>
       <c r="I17" s="3">
         <v>250000</v>
@@ -6062,7 +6034,7 @@
     </row>
     <row r="18" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -6074,16 +6046,16 @@
         <v>234</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H18" s="4">
-        <v>40601</v>
+        <v>50301</v>
       </c>
       <c r="I18" s="3">
         <v>250000</v>
@@ -6106,7 +6078,7 @@
     </row>
     <row r="19" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -6118,16 +6090,16 @@
         <v>234</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H19" s="4">
-        <v>70801</v>
+        <v>66601</v>
       </c>
       <c r="I19" s="3">
         <v>250000</v>
@@ -6150,7 +6122,7 @@
     </row>
     <row r="20" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -6162,16 +6134,16 @@
         <v>234</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>177</v>
+        <v>98</v>
+      </c>
+      <c r="H20" s="4">
+        <v>40601</v>
       </c>
       <c r="I20" s="3">
         <v>250000</v>
@@ -6194,7 +6166,7 @@
     </row>
     <row r="21" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -6206,16 +6178,16 @@
         <v>234</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H21" s="4">
-        <v>21401</v>
+        <v>70801</v>
       </c>
       <c r="I21" s="3">
         <v>250000</v>
@@ -6238,7 +6210,7 @@
     </row>
     <row r="22" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
@@ -6250,16 +6222,16 @@
         <v>234</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I22" s="3">
         <v>250000</v>
@@ -6282,7 +6254,7 @@
     </row>
     <row r="23" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -6294,16 +6266,16 @@
         <v>234</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H23" s="4">
-        <v>48901</v>
+        <v>21401</v>
       </c>
       <c r="I23" s="3">
         <v>250000</v>
@@ -6326,7 +6298,7 @@
     </row>
     <row r="24" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -6338,16 +6310,16 @@
         <v>234</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="4">
-        <v>55101</v>
+        <v>102</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="I24" s="3">
         <v>250000</v>
@@ -6370,7 +6342,7 @@
     </row>
     <row r="25" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -6382,16 +6354,16 @@
         <v>234</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H25" s="4">
-        <v>39201</v>
+        <v>48901</v>
       </c>
       <c r="I25" s="3">
         <v>250000</v>
@@ -6414,7 +6386,7 @@
     </row>
     <row r="26" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -6426,16 +6398,16 @@
         <v>234</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H26" s="4">
-        <v>65101</v>
+        <v>55101</v>
       </c>
       <c r="I26" s="3">
         <v>250000</v>
@@ -6458,7 +6430,7 @@
     </row>
     <row r="27" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -6470,16 +6442,16 @@
         <v>234</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H27" s="4">
-        <v>59601</v>
+        <v>39201</v>
       </c>
       <c r="I27" s="3">
         <v>250000</v>
@@ -6502,7 +6474,7 @@
     </row>
     <row r="28" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
@@ -6514,16 +6486,16 @@
         <v>234</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H28" s="4">
-        <v>68501</v>
+        <v>65101</v>
       </c>
       <c r="I28" s="3">
         <v>250000</v>
@@ -6546,7 +6518,7 @@
     </row>
     <row r="29" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
@@ -6558,16 +6530,16 @@
         <v>234</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H29" s="4">
-        <v>89701</v>
+        <v>59601</v>
       </c>
       <c r="I29" s="3">
         <v>250000</v>
@@ -6590,7 +6562,7 @@
     </row>
     <row r="30" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
@@ -6602,16 +6574,16 @@
         <v>234</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H30" s="4">
-        <v>3301</v>
+        <v>68501</v>
       </c>
       <c r="I30" s="3">
         <v>250000</v>
@@ -6634,7 +6606,7 @@
     </row>
     <row r="31" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
@@ -6646,16 +6618,16 @@
         <v>234</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H31" s="4">
-        <v>8601</v>
+        <v>89701</v>
       </c>
       <c r="I31" s="3">
         <v>250000</v>
@@ -6678,7 +6650,7 @@
     </row>
     <row r="32" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
@@ -6690,16 +6662,16 @@
         <v>234</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H32" s="4">
-        <v>87501</v>
+        <v>3301</v>
       </c>
       <c r="I32" s="3">
         <v>250000</v>
@@ -6722,7 +6694,7 @@
     </row>
     <row r="33" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
@@ -6734,16 +6706,16 @@
         <v>234</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H33" s="4">
-        <v>12201</v>
+        <v>8601</v>
       </c>
       <c r="I33" s="3">
         <v>250000</v>
@@ -6766,7 +6738,7 @@
     </row>
     <row r="34" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
@@ -6778,16 +6750,16 @@
         <v>234</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H34" s="4">
-        <v>27601</v>
+        <v>87501</v>
       </c>
       <c r="I34" s="3">
         <v>250000</v>
@@ -6810,7 +6782,7 @@
     </row>
     <row r="35" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
@@ -6822,16 +6794,16 @@
         <v>234</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H35" s="4">
-        <v>58501</v>
+        <v>12201</v>
       </c>
       <c r="I35" s="3">
         <v>250000</v>
@@ -6854,7 +6826,7 @@
     </row>
     <row r="36" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
@@ -6866,16 +6838,16 @@
         <v>234</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H36" s="4">
-        <v>43085</v>
+        <v>27601</v>
       </c>
       <c r="I36" s="3">
         <v>250000</v>
@@ -6898,7 +6870,7 @@
     </row>
     <row r="37" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
@@ -6910,16 +6882,16 @@
         <v>234</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H37" s="4">
-        <v>73101</v>
+        <v>58501</v>
       </c>
       <c r="I37" s="3">
         <v>250000</v>
@@ -6942,7 +6914,7 @@
     </row>
     <row r="38" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
@@ -6954,16 +6926,16 @@
         <v>234</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H38" s="4">
-        <v>97301</v>
+        <v>43085</v>
       </c>
       <c r="I38" s="3">
         <v>250000</v>
@@ -6986,7 +6958,7 @@
     </row>
     <row r="39" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B39" s="4">
         <v>1</v>
@@ -6998,16 +6970,16 @@
         <v>234</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H39" s="4">
-        <v>17101</v>
+        <v>73101</v>
       </c>
       <c r="I39" s="3">
         <v>250000</v>
@@ -7030,7 +7002,7 @@
     </row>
     <row r="40" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
@@ -7042,16 +7014,16 @@
         <v>234</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>155</v>
+        <v>120</v>
+      </c>
+      <c r="H40" s="4">
+        <v>97301</v>
       </c>
       <c r="I40" s="3">
         <v>250000</v>
@@ -7074,7 +7046,7 @@
     </row>
     <row r="41" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
@@ -7086,16 +7058,16 @@
         <v>234</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H41" s="4">
-        <v>29201</v>
+        <v>17101</v>
       </c>
       <c r="I41" s="3">
         <v>250000</v>
@@ -7118,7 +7090,7 @@
     </row>
     <row r="42" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B42" s="4">
         <v>1</v>
@@ -7130,16 +7102,16 @@
         <v>234</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H42" s="4">
-        <v>57501</v>
+        <v>122</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="I42" s="3">
         <v>250000</v>
@@ -7162,7 +7134,7 @@
     </row>
     <row r="43" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B43" s="4">
         <v>1</v>
@@ -7174,16 +7146,16 @@
         <v>234</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H43" s="4">
-        <v>37115</v>
+        <v>29201</v>
       </c>
       <c r="I43" s="3">
         <v>250000</v>
@@ -7206,7 +7178,7 @@
     </row>
     <row r="44" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B44" s="4">
         <v>1</v>
@@ -7218,16 +7190,16 @@
         <v>234</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H44" s="4">
-        <v>73301</v>
+        <v>57501</v>
       </c>
       <c r="I44" s="3">
         <v>250000</v>
@@ -7250,7 +7222,7 @@
     </row>
     <row r="45" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
@@ -7262,16 +7234,16 @@
         <v>234</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H45" s="4">
-        <v>84101</v>
+        <v>37115</v>
       </c>
       <c r="I45" s="3">
         <v>250000</v>
@@ -7294,7 +7266,7 @@
     </row>
     <row r="46" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B46" s="4">
         <v>1</v>
@@ -7306,16 +7278,16 @@
         <v>234</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>156</v>
+        <v>126</v>
+      </c>
+      <c r="H46" s="4">
+        <v>73301</v>
       </c>
       <c r="I46" s="3">
         <v>250000</v>
@@ -7338,7 +7310,7 @@
     </row>
     <row r="47" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" s="4">
         <v>1</v>
@@ -7350,16 +7322,16 @@
         <v>234</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H47" s="4">
-        <v>23218</v>
+        <v>84101</v>
       </c>
       <c r="I47" s="3">
         <v>250000</v>
@@ -7382,7 +7354,7 @@
     </row>
     <row r="48" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B48" s="4">
         <v>1</v>
@@ -7394,16 +7366,16 @@
         <v>234</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H48" s="4">
-        <v>98501</v>
+        <v>128</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="I48" s="3">
         <v>250000</v>
@@ -7426,7 +7398,7 @@
     </row>
     <row r="49" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
@@ -7438,16 +7410,16 @@
         <v>234</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H49" s="4">
-        <v>25301</v>
+        <v>23218</v>
       </c>
       <c r="I49" s="3">
         <v>250000</v>
@@ -7470,7 +7442,7 @@
     </row>
     <row r="50" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
@@ -7482,16 +7454,16 @@
         <v>234</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H50" s="4">
-        <v>53705</v>
+        <v>98501</v>
       </c>
       <c r="I50" s="3">
         <v>250000</v>
@@ -7514,7 +7486,7 @@
     </row>
     <row r="51" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B51" s="4">
         <v>1</v>
@@ -7526,16 +7498,16 @@
         <v>234</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H51" s="4">
-        <v>82001</v>
+        <v>25301</v>
       </c>
       <c r="I51" s="3">
         <v>250000</v>
@@ -7557,27 +7529,55 @@
       </c>
     </row>
     <row r="52" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="4"/>
+      <c r="A52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" s="4">
+        <v>53705</v>
+      </c>
+      <c r="I52" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J52" s="5">
+        <v>43080</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M52" s="3">
+        <v>90</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="53" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B53" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>26</v>
@@ -7586,17 +7586,19 @@
         <v>234</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H53" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="H53" s="4">
+        <v>82001</v>
+      </c>
       <c r="I53" s="3">
-        <v>1000001</v>
+        <v>250000</v>
       </c>
       <c r="J53" s="5">
         <v>43080</v>
@@ -7611,7 +7613,7 @@
         <v>90</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -7632,10 +7634,10 @@
     </row>
     <row r="55" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B55" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>26</v>
@@ -7654,7 +7656,7 @@
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="3">
-        <v>2500001</v>
+        <v>1000001</v>
       </c>
       <c r="J55" s="5">
         <v>43080</v>
@@ -7669,7 +7671,7 @@
         <v>90</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -7690,10 +7692,10 @@
     </row>
     <row r="57" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B57" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>26</v>
@@ -7712,7 +7714,7 @@
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="3">
-        <v>500001</v>
+        <v>2500001</v>
       </c>
       <c r="J57" s="5">
         <v>43080</v>
@@ -7727,7 +7729,7 @@
         <v>90</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -7748,10 +7750,10 @@
     </row>
     <row r="59" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B59" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>26</v>
@@ -7770,7 +7772,7 @@
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="3">
-        <v>499999</v>
+        <v>500001</v>
       </c>
       <c r="J59" s="5">
         <v>43080</v>
@@ -7785,31 +7787,31 @@
         <v>90</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="4"/>
     </row>
     <row r="61" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>26</v>
@@ -7864,10 +7866,10 @@
     </row>
     <row r="63" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>26</v>
@@ -7904,13 +7906,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+    </row>
     <row r="65" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B65" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>26</v>
@@ -7944,16 +7961,16 @@
         <v>90</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B67" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>26</v>
@@ -7990,28 +8007,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-    </row>
+    <row r="68" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B69" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>26</v>
@@ -8066,10 +8068,10 @@
     </row>
     <row r="71" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B71" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>26</v>
@@ -8106,13 +8108,28 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+    </row>
     <row r="73" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B73" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>26</v>
@@ -8146,16 +8163,16 @@
         <v>90</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B75" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>26</v>
@@ -8192,28 +8209,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
-    </row>
+    <row r="76" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="77" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B77" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>26</v>
@@ -8268,10 +8270,10 @@
     </row>
     <row r="79" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B79" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>26</v>
@@ -8308,13 +8310,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+    </row>
     <row r="81" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B81" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>26</v>
@@ -8333,7 +8350,7 @@
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="3">
-        <v>500000</v>
+        <v>499999</v>
       </c>
       <c r="J81" s="5">
         <v>43080</v>
@@ -8348,25 +8365,10 @@
         <v>90</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
-      <c r="K82"/>
-      <c r="L82"/>
-      <c r="M82"/>
-      <c r="N82"/>
-    </row>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>22</v>
@@ -8391,7 +8393,7 @@
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="3">
-        <v>500001</v>
+        <v>500000</v>
       </c>
       <c r="J83" s="5">
         <v>43080</v>
@@ -8427,10 +8429,10 @@
     </row>
     <row r="85" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B85" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>26</v>
@@ -8449,7 +8451,7 @@
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="3">
-        <v>1000000</v>
+        <v>500001</v>
       </c>
       <c r="J85" s="5">
         <v>43080</v>
@@ -8464,7 +8466,7 @@
         <v>90</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -8507,7 +8509,7 @@
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="3">
-        <v>1000001</v>
+        <v>1000000</v>
       </c>
       <c r="J87" s="5">
         <v>43080</v>
@@ -8543,10 +8545,10 @@
     </row>
     <row r="89" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B89" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>26</v>
@@ -8565,7 +8567,7 @@
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="3">
-        <v>2500001</v>
+        <v>1000001</v>
       </c>
       <c r="J89" s="5">
         <v>43080</v>
@@ -8580,7 +8582,7 @@
         <v>90</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -8657,21 +8659,47 @@
       <c r="M92"/>
       <c r="N92"/>
     </row>
-    <row r="93" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93"/>
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
-      <c r="J93"/>
-      <c r="K93"/>
-      <c r="L93"/>
-      <c r="M93"/>
-      <c r="N93"/>
+    <row r="93" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" s="4">
+        <v>7</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H93" s="4"/>
+      <c r="I93" s="3">
+        <v>2500001</v>
+      </c>
+      <c r="J93" s="5">
+        <v>43080</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M93" s="3">
+        <v>90</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="94" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A94"/>
@@ -8689,8 +8717,40 @@
       <c r="M94"/>
       <c r="N94"/>
     </row>
+    <row r="95" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+    </row>
+    <row r="96" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N94" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N96" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/MMTM_Customer_Center.xlsx
+++ b/utilities/Excel_Sheets/Products/MMTM_Customer_Center.xlsx
@@ -1252,7 +1252,7 @@
       </c>
       <c r="J2" s="5">
         <f t="shared" ref="J2:J15" ca="1" si="0">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>10</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="J4" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>10</v>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="J6" s="5">
         <f ca="1">TODAY()+30</f>
-        <v>43292</v>
+        <v>43407</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>10</v>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="J7" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>10</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="J8" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>10</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="J9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>10</v>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="J11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>10</v>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="J12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>10</v>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="J13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>10</v>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="J14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="J15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J17" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>10</v>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="J19" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>10</v>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J21" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="J23" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>10</v>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="J25" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>10</v>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="J27" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>10</v>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="J29" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="J31" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>10</v>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="J33" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>10</v>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="J35" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>10</v>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="J37" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>10</v>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="J39" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>10</v>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="J41" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>10</v>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="J43" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>10</v>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="J45" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>10</v>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="J47" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>10</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="J49" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>10</v>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="J51" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>10</v>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="J53" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>10</v>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="J55" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>10</v>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="J57" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>10</v>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="J59" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>10</v>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="J60" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>10</v>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="J61" s="5">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>10</v>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="J62" s="5">
         <f t="shared" ref="J62:J108" ca="1" si="1">TODAY()</f>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>10</v>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="J63" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>10</v>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="J64" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>10</v>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="J65" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>10</v>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="J66" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>10</v>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="J67" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>10</v>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="J68" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>10</v>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="J69" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>10</v>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="J70" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>10</v>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="J71" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>10</v>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="J72" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>10</v>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="J73" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>10</v>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="J74" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>10</v>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="J75" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>10</v>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="J76" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>10</v>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="J77" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>10</v>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="J78" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>10</v>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="J79" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>10</v>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="J80" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>10</v>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="J81" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>10</v>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="J82" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>10</v>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="J83" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="J84" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>10</v>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="J85" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>10</v>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="J86" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>10</v>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="J87" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>10</v>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="J88" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>10</v>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="J89" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>10</v>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="J90" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>10</v>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="J91" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="J92" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>10</v>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="J93" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>10</v>
@@ -4602,7 +4602,7 @@
       </c>
       <c r="J94" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="J95" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>10</v>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="J96" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>10</v>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="J97" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>10</v>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="J98" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>10</v>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="J99" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K99" s="3" t="s">
         <v>10</v>
@@ -4872,7 +4872,7 @@
       </c>
       <c r="J100" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="J101" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="J102" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>10</v>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="J103" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K103" s="3" t="s">
         <v>10</v>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="J104" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>10</v>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="J105" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>10</v>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="J106" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>10</v>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="J107" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>10</v>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="J108" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>43262</v>
+        <v>43377</v>
       </c>
       <c r="K108" s="3" t="s">
         <v>10</v>
@@ -5290,10 +5290,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEB446C-92F7-46D0-A27D-E34457525106}">
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
